--- a/output/1Y_P27_1VAL-D.xlsx
+++ b/output/1Y_P27_1VAL-D.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="30">
   <si>
     <t>NAV</t>
   </si>
@@ -34,16 +34,22 @@
     <t>Offer Price</t>
   </si>
   <si>
-    <t>Required Value</t>
+    <t>Shares Owned</t>
   </si>
   <si>
     <t>Shares Bought</t>
   </si>
   <si>
-    <t>Shares Owned</t>
+    <t>Required Value</t>
   </si>
   <si>
     <t>Portfolio Value</t>
+  </si>
+  <si>
+    <t>Cash</t>
+  </si>
+  <si>
+    <t>Wealth</t>
   </si>
   <si>
     <t>Total Cost</t>
@@ -64,10 +70,7 @@
     <t>CFI</t>
   </si>
   <si>
-    <t>Net Cash</t>
-  </si>
-  <si>
-    <t>Net Wealth</t>
+    <t>TWR</t>
   </si>
   <si>
     <t>Period</t>
@@ -648,24 +651,24 @@
     <col min="2" max="2" width="9.7109375" style="1" customWidth="1"/>
     <col min="3" max="3" width="11.7109375" style="1" customWidth="1"/>
     <col min="4" max="4" width="13.7109375" style="1" customWidth="1"/>
-    <col min="5" max="5" width="16.7109375" style="1" customWidth="1"/>
+    <col min="5" max="5" width="14.7109375" style="1" customWidth="1"/>
     <col min="6" max="6" width="15.7109375" style="1" customWidth="1"/>
-    <col min="7" max="7" width="14.7109375" style="1" customWidth="1"/>
+    <col min="7" max="7" width="16.7109375" style="1" customWidth="1"/>
     <col min="8" max="8" width="17.7109375" style="1" customWidth="1"/>
-    <col min="9" max="9" width="13.7109375" style="1" customWidth="1"/>
-    <col min="10" max="10" width="14.7109375" style="1" customWidth="1"/>
-    <col min="11" max="11" width="6.7109375" style="1" customWidth="1"/>
-    <col min="12" max="12" width="15.7109375" style="1" customWidth="1"/>
-    <col min="13" max="13" width="9.7109375" style="1" customWidth="1"/>
-    <col min="14" max="14" width="13.7109375" style="1" customWidth="1"/>
-    <col min="15" max="15" width="13.7109375" style="1" customWidth="1"/>
+    <col min="9" max="9" width="10.7109375" style="1" customWidth="1"/>
+    <col min="10" max="10" width="13.7109375" style="1" customWidth="1"/>
+    <col min="11" max="11" width="13.7109375" style="1" customWidth="1"/>
+    <col min="12" max="12" width="14.7109375" style="1" customWidth="1"/>
+    <col min="13" max="13" width="6.7109375" style="1" customWidth="1"/>
+    <col min="14" max="14" width="15.7109375" style="1" customWidth="1"/>
+    <col min="15" max="15" width="9.7109375" style="1" customWidth="1"/>
     <col min="16" max="16" width="13.7109375" style="1" customWidth="1"/>
     <col min="17" max="17" width="9.7109375" style="3" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:17">
       <c r="A1" s="2" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>0</v>
@@ -713,7 +716,7 @@
         <v>15</v>
       </c>
       <c r="Q1" s="2" t="s">
-        <v>1</v>
+        <v>16</v>
       </c>
     </row>
     <row r="2" spans="1:17">
@@ -729,41 +732,35 @@
       <c r="D2" s="1">
         <v>14.2341</v>
       </c>
+      <c r="E2" s="1">
+        <v>0</v>
+      </c>
       <c r="F2" s="1">
         <v>702.5383</v>
       </c>
-      <c r="G2" s="1">
-        <v>702.5383</v>
-      </c>
       <c r="H2" s="1">
-        <v>9948.082399999999</v>
+        <v>0</v>
       </c>
       <c r="I2" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="J2" s="1">
-        <v>14.2341</v>
+        <v>0</v>
       </c>
       <c r="K2" s="1">
         <v>0</v>
       </c>
-      <c r="L2" s="1">
-        <v>0</v>
-      </c>
       <c r="M2" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N2" s="1">
+        <v>0</v>
+      </c>
+      <c r="O2" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P2" s="1">
         <v>-10000</v>
-      </c>
-      <c r="O2" s="1">
-        <v>0</v>
-      </c>
-      <c r="P2" s="1">
-        <v>9948.082399999999</v>
-      </c>
-      <c r="Q2" s="3">
-        <v>-0.0052</v>
       </c>
     </row>
     <row r="3" spans="1:17">
@@ -779,41 +776,41 @@
       <c r="D3" s="1">
         <v>13.7456</v>
       </c>
+      <c r="E3" s="1">
+        <v>702.5383</v>
+      </c>
       <c r="F3" s="1">
         <v>727.5055</v>
       </c>
-      <c r="G3" s="1">
-        <v>1430.0438</v>
-      </c>
       <c r="H3" s="1">
-        <v>19554.8479</v>
+        <v>9606.7191</v>
       </c>
       <c r="I3" s="1">
-        <v>20000</v>
+        <v>0</v>
       </c>
       <c r="J3" s="1">
-        <v>13.9856</v>
+        <v>9606.7191</v>
       </c>
       <c r="K3" s="1">
-        <v>0</v>
+        <v>10000</v>
       </c>
       <c r="L3" s="1">
-        <v>0</v>
+        <v>14.2341</v>
       </c>
       <c r="M3" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N3" s="1">
+        <v>0</v>
+      </c>
+      <c r="O3" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P3" s="1">
         <v>-10000</v>
       </c>
-      <c r="O3" s="1">
-        <v>0</v>
-      </c>
-      <c r="P3" s="1">
-        <v>19554.8479</v>
-      </c>
       <c r="Q3" s="3">
-        <v>-0.0197</v>
+        <v>-0.0393</v>
       </c>
     </row>
     <row r="4" spans="1:17">
@@ -829,41 +826,41 @@
       <c r="D4" s="1">
         <v>14.5325</v>
       </c>
+      <c r="E4" s="1">
+        <v>1430.0438</v>
+      </c>
       <c r="F4" s="1">
         <v>688.1129</v>
       </c>
-      <c r="G4" s="1">
-        <v>2118.1567</v>
-      </c>
       <c r="H4" s="1">
-        <v>30622.4025</v>
+        <v>20674.2862</v>
       </c>
       <c r="I4" s="1">
-        <v>30000</v>
+        <v>0</v>
       </c>
       <c r="J4" s="1">
-        <v>14.1633</v>
+        <v>20674.2862</v>
       </c>
       <c r="K4" s="1">
+        <v>20000</v>
+      </c>
+      <c r="L4" s="1">
+        <v>13.9856</v>
+      </c>
+      <c r="M4" s="1">
         <v>0.75</v>
       </c>
-      <c r="L4" s="1">
-        <v>965.2796</v>
-      </c>
-      <c r="M4" s="1">
-        <v>10000</v>
-      </c>
       <c r="N4" s="1">
-        <v>-9034.7204</v>
+        <v>474.2133</v>
       </c>
       <c r="O4" s="1">
-        <v>965.2796</v>
+        <v>10000</v>
       </c>
       <c r="P4" s="1">
-        <v>31587.6821</v>
+        <v>-9525.786700000001</v>
       </c>
       <c r="Q4" s="3">
-        <v>0.0688</v>
+        <v>0.0544</v>
       </c>
     </row>
     <row r="5" spans="1:17">
@@ -879,41 +876,41 @@
       <c r="D5" s="1">
         <v>14.0538</v>
       </c>
+      <c r="E5" s="1">
+        <v>2118.1567</v>
+      </c>
       <c r="F5" s="1">
-        <v>719.1829</v>
-      </c>
-      <c r="G5" s="1">
-        <v>2837.3396</v>
+        <v>715.3005000000001</v>
       </c>
       <c r="H5" s="1">
-        <v>39668.5612</v>
+        <v>29613.7363</v>
       </c>
       <c r="I5" s="1">
-        <v>40107.2533</v>
+        <v>474.2133</v>
       </c>
       <c r="J5" s="1">
-        <v>14.1355</v>
+        <v>30087.9496</v>
       </c>
       <c r="K5" s="1">
-        <v>0</v>
+        <v>30052.6904</v>
       </c>
       <c r="L5" s="1">
-        <v>0</v>
+        <v>14.1881</v>
       </c>
       <c r="M5" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N5" s="1">
-        <v>-10107.2533</v>
+        <v>0</v>
       </c>
       <c r="O5" s="1">
-        <v>858.0263</v>
+        <v>10000</v>
       </c>
       <c r="P5" s="1">
-        <v>40526.5874</v>
+        <v>-10052.6904</v>
       </c>
       <c r="Q5" s="3">
-        <v>-0.0255</v>
+        <v>-0.0191</v>
       </c>
     </row>
     <row r="6" spans="1:17">
@@ -929,41 +926,41 @@
       <c r="D6" s="1">
         <v>13.1873</v>
       </c>
+      <c r="E6" s="1">
+        <v>2833.4572</v>
+      </c>
       <c r="F6" s="1">
-        <v>766.4384</v>
-      </c>
-      <c r="G6" s="1">
-        <v>3603.778</v>
+        <v>762.3009</v>
       </c>
       <c r="H6" s="1">
-        <v>47277.6033</v>
+        <v>37171.8412</v>
       </c>
       <c r="I6" s="1">
-        <v>50214.5066</v>
+        <v>421.523</v>
       </c>
       <c r="J6" s="1">
-        <v>13.9339</v>
+        <v>37593.3642</v>
       </c>
       <c r="K6" s="1">
-        <v>0</v>
+        <v>40105.3807</v>
       </c>
       <c r="L6" s="1">
-        <v>0</v>
+        <v>14.1542</v>
       </c>
       <c r="M6" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N6" s="1">
-        <v>-10107.2533</v>
+        <v>0</v>
       </c>
       <c r="O6" s="1">
-        <v>750.773</v>
+        <v>10000</v>
       </c>
       <c r="P6" s="1">
-        <v>48028.3763</v>
+        <v>-10052.6904</v>
       </c>
       <c r="Q6" s="3">
-        <v>-0.0494</v>
+        <v>-0.0622</v>
       </c>
     </row>
     <row r="7" spans="1:17">
@@ -979,41 +976,41 @@
       <c r="D7" s="1">
         <v>13.0538</v>
       </c>
+      <c r="E7" s="1">
+        <v>3595.758</v>
+      </c>
       <c r="F7" s="1">
-        <v>774.2767</v>
-      </c>
-      <c r="G7" s="1">
-        <v>4378.0547</v>
+        <v>770.0969</v>
       </c>
       <c r="H7" s="1">
-        <v>56853.8564</v>
+        <v>46694.8735</v>
       </c>
       <c r="I7" s="1">
-        <v>60321.7599</v>
+        <v>368.8326</v>
       </c>
       <c r="J7" s="1">
-        <v>13.7782</v>
+        <v>47063.7061</v>
       </c>
       <c r="K7" s="1">
-        <v>0</v>
+        <v>50158.0711</v>
       </c>
       <c r="L7" s="1">
-        <v>0</v>
+        <v>13.9492</v>
       </c>
       <c r="M7" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N7" s="1">
-        <v>-10107.2533</v>
+        <v>0</v>
       </c>
       <c r="O7" s="1">
-        <v>643.5196999999999</v>
+        <v>10000</v>
       </c>
       <c r="P7" s="1">
-        <v>57497.3761</v>
+        <v>-10052.6904</v>
       </c>
       <c r="Q7" s="3">
-        <v>-0.0092</v>
+        <v>-0.0111</v>
       </c>
     </row>
     <row r="8" spans="1:17">
@@ -1029,41 +1026,41 @@
       <c r="D8" s="1">
         <v>13.8433</v>
       </c>
+      <c r="E8" s="1">
+        <v>4365.8549</v>
+      </c>
       <c r="F8" s="1">
-        <v>730.1188</v>
-      </c>
-      <c r="G8" s="1">
-        <v>5108.1735</v>
+        <v>726.1772999999999</v>
       </c>
       <c r="H8" s="1">
-        <v>70347.2113</v>
+        <v>60124.3708</v>
       </c>
       <c r="I8" s="1">
-        <v>70429.0131</v>
+        <v>316.1422</v>
       </c>
       <c r="J8" s="1">
-        <v>13.7875</v>
+        <v>60440.513</v>
       </c>
       <c r="K8" s="1">
-        <v>0</v>
+        <v>60210.7615</v>
       </c>
       <c r="L8" s="1">
-        <v>0</v>
+        <v>13.7913</v>
       </c>
       <c r="M8" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N8" s="1">
-        <v>-10107.2533</v>
+        <v>0</v>
       </c>
       <c r="O8" s="1">
-        <v>536.2664</v>
+        <v>10000</v>
       </c>
       <c r="P8" s="1">
-        <v>70883.4777</v>
+        <v>-10052.6904</v>
       </c>
       <c r="Q8" s="3">
-        <v>0.0502</v>
+        <v>0.0592</v>
       </c>
     </row>
     <row r="9" spans="1:17">
@@ -1079,41 +1076,41 @@
       <c r="D9" s="1">
         <v>14.4086</v>
       </c>
+      <c r="E9" s="1">
+        <v>5092.0322</v>
+      </c>
       <c r="F9" s="1">
-        <v>701.4737</v>
-      </c>
-      <c r="G9" s="1">
-        <v>5809.6471</v>
+        <v>697.6867999999999</v>
       </c>
       <c r="H9" s="1">
-        <v>83274.9013</v>
+        <v>72988.6805</v>
       </c>
       <c r="I9" s="1">
-        <v>80536.26639999999</v>
+        <v>263.4519</v>
       </c>
       <c r="J9" s="1">
-        <v>13.8625</v>
+        <v>73252.1324</v>
       </c>
       <c r="K9" s="1">
-        <v>0</v>
+        <v>70263.4519</v>
       </c>
       <c r="L9" s="1">
-        <v>0</v>
+        <v>13.7987</v>
       </c>
       <c r="M9" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N9" s="1">
-        <v>-10107.2533</v>
+        <v>0</v>
       </c>
       <c r="O9" s="1">
-        <v>429.0131</v>
+        <v>10000</v>
       </c>
       <c r="P9" s="1">
-        <v>83703.91439999999</v>
+        <v>-10052.6904</v>
       </c>
       <c r="Q9" s="3">
-        <v>0.0349</v>
+        <v>0.0399</v>
       </c>
     </row>
     <row r="10" spans="1:17">
@@ -1129,41 +1126,41 @@
       <c r="D10" s="1">
         <v>14.9338</v>
       </c>
+      <c r="E10" s="1">
+        <v>5789.719</v>
+      </c>
       <c r="F10" s="1">
-        <v>676.8038</v>
-      </c>
-      <c r="G10" s="1">
-        <v>6486.451</v>
+        <v>673.1502</v>
       </c>
       <c r="H10" s="1">
-        <v>96364.66190000001</v>
+        <v>86013.8029</v>
       </c>
       <c r="I10" s="1">
-        <v>90643.5197</v>
+        <v>210.7615</v>
       </c>
       <c r="J10" s="1">
-        <v>13.9743</v>
+        <v>86224.5644</v>
       </c>
       <c r="K10" s="1">
-        <v>0</v>
+        <v>80316.1422</v>
       </c>
       <c r="L10" s="1">
-        <v>0</v>
+        <v>13.8722</v>
       </c>
       <c r="M10" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N10" s="1">
-        <v>-10107.2533</v>
+        <v>0</v>
       </c>
       <c r="O10" s="1">
-        <v>321.7599</v>
+        <v>10000</v>
       </c>
       <c r="P10" s="1">
-        <v>96686.4218</v>
+        <v>-10052.6904</v>
       </c>
       <c r="Q10" s="3">
-        <v>0.0318</v>
+        <v>0.0357</v>
       </c>
     </row>
     <row r="11" spans="1:17">
@@ -1179,41 +1176,41 @@
       <c r="D11" s="1">
         <v>15.9313</v>
       </c>
+      <c r="E11" s="1">
+        <v>6462.8692</v>
+      </c>
       <c r="F11" s="1">
-        <v>634.4274</v>
-      </c>
-      <c r="G11" s="1">
-        <v>7120.8784</v>
+        <v>631.0025000000001</v>
       </c>
       <c r="H11" s="1">
-        <v>112856.6655</v>
+        <v>102428.0756</v>
       </c>
       <c r="I11" s="1">
-        <v>100750.773</v>
+        <v>158.0711</v>
       </c>
       <c r="J11" s="1">
-        <v>14.1486</v>
+        <v>102586.1467</v>
       </c>
       <c r="K11" s="1">
-        <v>0</v>
+        <v>90368.83259999999</v>
       </c>
       <c r="L11" s="1">
-        <v>0</v>
+        <v>13.9828</v>
       </c>
       <c r="M11" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N11" s="1">
-        <v>-10107.2533</v>
+        <v>0</v>
       </c>
       <c r="O11" s="1">
-        <v>214.5066</v>
+        <v>10000</v>
       </c>
       <c r="P11" s="1">
-        <v>113071.172</v>
+        <v>-10052.6904</v>
       </c>
       <c r="Q11" s="3">
-        <v>0.0598</v>
+        <v>0.06610000000000001</v>
       </c>
     </row>
     <row r="12" spans="1:17">
@@ -1229,41 +1226,41 @@
       <c r="D12" s="1">
         <v>17.0207</v>
       </c>
+      <c r="E12" s="1">
+        <v>7093.8717</v>
+      </c>
       <c r="F12" s="1">
-        <v>593.8212</v>
-      </c>
-      <c r="G12" s="1">
-        <v>7714.6996</v>
+        <v>590.6156</v>
       </c>
       <c r="H12" s="1">
-        <v>130628.3803</v>
+        <v>120116.2739</v>
       </c>
       <c r="I12" s="1">
-        <v>110858.0263</v>
+        <v>105.3807</v>
       </c>
       <c r="J12" s="1">
-        <v>14.3697</v>
+        <v>120221.6547</v>
       </c>
       <c r="K12" s="1">
-        <v>0</v>
+        <v>100421.523</v>
       </c>
       <c r="L12" s="1">
-        <v>0</v>
+        <v>14.1561</v>
       </c>
       <c r="M12" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N12" s="1">
-        <v>-10107.2533</v>
+        <v>0</v>
       </c>
       <c r="O12" s="1">
-        <v>107.2533</v>
+        <v>10000</v>
       </c>
       <c r="P12" s="1">
-        <v>130735.6335</v>
+        <v>-10052.6904</v>
       </c>
       <c r="Q12" s="3">
-        <v>0.0623</v>
+        <v>0.0678</v>
       </c>
     </row>
     <row r="13" spans="1:17">
@@ -1279,41 +1276,41 @@
       <c r="D13" s="1">
         <v>17.4608</v>
       </c>
+      <c r="E13" s="1">
+        <v>7684.4873</v>
+      </c>
       <c r="F13" s="1">
-        <v>578.854</v>
-      </c>
-      <c r="G13" s="1">
-        <v>8293.553599999999</v>
+        <v>575.7291</v>
       </c>
       <c r="H13" s="1">
-        <v>144060.6849</v>
+        <v>133481.0815</v>
       </c>
       <c r="I13" s="1">
-        <v>120965.2796</v>
+        <v>52.6904</v>
       </c>
       <c r="J13" s="1">
-        <v>14.5855</v>
+        <v>133533.7719</v>
       </c>
       <c r="K13" s="1">
-        <v>0</v>
+        <v>110474.2133</v>
       </c>
       <c r="L13" s="1">
-        <v>0</v>
+        <v>14.3763</v>
       </c>
       <c r="M13" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N13" s="1">
-        <v>-10107.2533</v>
+        <v>0</v>
       </c>
       <c r="O13" s="1">
-        <v>0</v>
+        <v>10000</v>
       </c>
       <c r="P13" s="1">
-        <v>144060.6849</v>
+        <v>-10052.6904</v>
       </c>
       <c r="Q13" s="3">
-        <v>0.0236</v>
+        <v>0.0254</v>
       </c>
     </row>
     <row r="14" spans="1:17">
@@ -1329,41 +1326,41 @@
       <c r="D14" s="1">
         <v>16.886</v>
       </c>
+      <c r="E14" s="1">
+        <v>8260.216399999999</v>
+      </c>
       <c r="F14" s="1">
-        <v>-8293.553599999999</v>
-      </c>
-      <c r="G14" s="1">
-        <v>0</v>
+        <v>-7684.4873</v>
       </c>
       <c r="H14" s="1">
-        <v>0</v>
+        <v>138759.2451</v>
       </c>
       <c r="I14" s="1">
-        <v>120965.2796</v>
+        <v>0</v>
       </c>
       <c r="J14" s="1">
-        <v>14.5855</v>
+        <v>138759.2451</v>
       </c>
       <c r="K14" s="1">
-        <v>0</v>
+        <v>110474.2133</v>
       </c>
       <c r="L14" s="1">
-        <v>0</v>
+        <v>13.3743</v>
       </c>
       <c r="M14" s="1">
         <v>0</v>
       </c>
       <c r="N14" s="1">
-        <v>139319.2603</v>
+        <v>0</v>
       </c>
       <c r="O14" s="1">
-        <v>139319.2603</v>
+        <v>0</v>
       </c>
       <c r="P14" s="1">
-        <v>139319.2603</v>
+        <v>129087.8601</v>
       </c>
       <c r="Q14" s="3">
-        <v>-0.09569999999999999</v>
+        <v>-0.0333</v>
       </c>
     </row>
   </sheetData>
@@ -1383,24 +1380,24 @@
     <col min="2" max="2" width="9.7109375" style="1" customWidth="1"/>
     <col min="3" max="3" width="11.7109375" style="1" customWidth="1"/>
     <col min="4" max="4" width="13.7109375" style="1" customWidth="1"/>
-    <col min="5" max="5" width="16.7109375" style="1" customWidth="1"/>
+    <col min="5" max="5" width="14.7109375" style="1" customWidth="1"/>
     <col min="6" max="6" width="15.7109375" style="1" customWidth="1"/>
-    <col min="7" max="7" width="14.7109375" style="1" customWidth="1"/>
+    <col min="7" max="7" width="16.7109375" style="1" customWidth="1"/>
     <col min="8" max="8" width="17.7109375" style="1" customWidth="1"/>
     <col min="9" max="9" width="12.7109375" style="1" customWidth="1"/>
-    <col min="10" max="10" width="14.7109375" style="1" customWidth="1"/>
-    <col min="11" max="11" width="6.7109375" style="1" customWidth="1"/>
-    <col min="12" max="12" width="15.7109375" style="1" customWidth="1"/>
-    <col min="13" max="13" width="9.7109375" style="1" customWidth="1"/>
-    <col min="14" max="14" width="13.7109375" style="1" customWidth="1"/>
-    <col min="15" max="15" width="13.7109375" style="1" customWidth="1"/>
+    <col min="10" max="10" width="13.7109375" style="1" customWidth="1"/>
+    <col min="11" max="11" width="12.7109375" style="1" customWidth="1"/>
+    <col min="12" max="12" width="14.7109375" style="1" customWidth="1"/>
+    <col min="13" max="13" width="6.7109375" style="1" customWidth="1"/>
+    <col min="14" max="14" width="15.7109375" style="1" customWidth="1"/>
+    <col min="15" max="15" width="9.7109375" style="1" customWidth="1"/>
     <col min="16" max="16" width="13.7109375" style="1" customWidth="1"/>
     <col min="17" max="17" width="9.7109375" style="3" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:17">
       <c r="A1" s="2" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>0</v>
@@ -1448,7 +1445,7 @@
         <v>15</v>
       </c>
       <c r="Q1" s="2" t="s">
-        <v>1</v>
+        <v>16</v>
       </c>
     </row>
     <row r="2" spans="1:17">
@@ -1465,43 +1462,37 @@
         <v>14.2341</v>
       </c>
       <c r="E2" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="F2" s="1">
         <v>702.5383</v>
       </c>
       <c r="G2" s="1">
-        <v>702.5383</v>
+        <v>10000</v>
       </c>
       <c r="H2" s="1">
-        <v>9948.082399999999</v>
+        <v>0</v>
       </c>
       <c r="I2" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="J2" s="1">
-        <v>14.2341</v>
+        <v>0</v>
       </c>
       <c r="K2" s="1">
         <v>0</v>
       </c>
-      <c r="L2" s="1">
-        <v>0</v>
-      </c>
       <c r="M2" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N2" s="1">
+        <v>0</v>
+      </c>
+      <c r="O2" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P2" s="1">
         <v>-10000</v>
-      </c>
-      <c r="O2" s="1">
-        <v>0</v>
-      </c>
-      <c r="P2" s="1">
-        <v>9948.082399999999</v>
-      </c>
-      <c r="Q2" s="3">
-        <v>-0.0052</v>
       </c>
     </row>
     <row r="3" spans="1:17">
@@ -1518,43 +1509,43 @@
         <v>13.7456</v>
       </c>
       <c r="E3" s="1">
-        <v>20000</v>
+        <v>702.5383</v>
       </c>
       <c r="F3" s="1">
         <v>727.5055</v>
       </c>
       <c r="G3" s="1">
-        <v>1430.0438</v>
+        <v>20000</v>
       </c>
       <c r="H3" s="1">
-        <v>19554.8479</v>
+        <v>9606.7191</v>
       </c>
       <c r="I3" s="1">
-        <v>20000</v>
+        <v>0</v>
       </c>
       <c r="J3" s="1">
-        <v>13.9856</v>
+        <v>9606.7191</v>
       </c>
       <c r="K3" s="1">
-        <v>0</v>
+        <v>10000</v>
       </c>
       <c r="L3" s="1">
-        <v>0</v>
+        <v>14.2341</v>
       </c>
       <c r="M3" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N3" s="1">
+        <v>0</v>
+      </c>
+      <c r="O3" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P3" s="1">
         <v>-10000</v>
       </c>
-      <c r="O3" s="1">
-        <v>0</v>
-      </c>
-      <c r="P3" s="1">
-        <v>19554.8479</v>
-      </c>
       <c r="Q3" s="3">
-        <v>-0.0197</v>
+        <v>-0.0393</v>
       </c>
     </row>
     <row r="4" spans="1:17">
@@ -1571,43 +1562,43 @@
         <v>14.5325</v>
       </c>
       <c r="E4" s="1">
-        <v>30000</v>
+        <v>1430.0438</v>
       </c>
       <c r="F4" s="1">
         <v>645.0612</v>
       </c>
       <c r="G4" s="1">
-        <v>2075.105</v>
+        <v>30000</v>
       </c>
       <c r="H4" s="1">
-        <v>30000</v>
+        <v>20674.2862</v>
       </c>
       <c r="I4" s="1">
-        <v>29374.3514</v>
+        <v>0</v>
       </c>
       <c r="J4" s="1">
-        <v>14.1556</v>
+        <v>20674.2862</v>
       </c>
       <c r="K4" s="1">
+        <v>19374.3514</v>
+      </c>
+      <c r="L4" s="1">
+        <v>13.5481</v>
+      </c>
+      <c r="M4" s="1">
         <v>0.75</v>
       </c>
-      <c r="L4" s="1">
-        <v>965.2796</v>
-      </c>
-      <c r="M4" s="1">
-        <v>10000</v>
-      </c>
       <c r="N4" s="1">
-        <v>-8409.0718</v>
+        <v>474.2133</v>
       </c>
       <c r="O4" s="1">
-        <v>1590.9282</v>
+        <v>10000</v>
       </c>
       <c r="P4" s="1">
-        <v>31590.9282</v>
+        <v>-8900.1381</v>
       </c>
       <c r="Q4" s="3">
-        <v>0.0689</v>
+        <v>0.0544</v>
       </c>
     </row>
     <row r="5" spans="1:17">
@@ -1624,43 +1615,43 @@
         <v>14.0538</v>
       </c>
       <c r="E5" s="1">
-        <v>40000</v>
+        <v>2075.105</v>
       </c>
       <c r="F5" s="1">
         <v>785.9412</v>
       </c>
       <c r="G5" s="1">
-        <v>2861.0461</v>
+        <v>40000</v>
       </c>
       <c r="H5" s="1">
-        <v>40000</v>
+        <v>29011.835</v>
       </c>
       <c r="I5" s="1">
-        <v>40419.8115</v>
+        <v>1099.8619</v>
       </c>
       <c r="J5" s="1">
-        <v>14.1276</v>
+        <v>30111.697</v>
       </c>
       <c r="K5" s="1">
-        <v>0</v>
+        <v>30419.8115</v>
       </c>
       <c r="L5" s="1">
-        <v>0</v>
+        <v>14.6594</v>
       </c>
       <c r="M5" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N5" s="1">
+        <v>0</v>
+      </c>
+      <c r="O5" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P5" s="1">
         <v>-11045.4601</v>
       </c>
-      <c r="O5" s="1">
-        <v>545.4681</v>
-      </c>
-      <c r="P5" s="1">
-        <v>40545.4681</v>
-      </c>
       <c r="Q5" s="3">
-        <v>-0.0251</v>
+        <v>-0.0183</v>
       </c>
     </row>
     <row r="6" spans="1:17">
@@ -1677,43 +1668,43 @@
         <v>13.1873</v>
       </c>
       <c r="E6" s="1">
+        <v>2861.0461</v>
+      </c>
+      <c r="F6" s="1">
+        <v>762.4307</v>
+      </c>
+      <c r="G6" s="1">
         <v>50000</v>
       </c>
-      <c r="F6" s="1">
-        <v>799.6685</v>
-      </c>
-      <c r="G6" s="1">
-        <v>3660.7146</v>
-      </c>
       <c r="H6" s="1">
-        <v>48024.549</v>
+        <v>37533.7782</v>
       </c>
       <c r="I6" s="1">
-        <v>50965.2796</v>
+        <v>54.4018</v>
       </c>
       <c r="J6" s="1">
-        <v>13.9222</v>
+        <v>37588.1801</v>
       </c>
       <c r="K6" s="1">
-        <v>0</v>
+        <v>40474.2133</v>
       </c>
       <c r="L6" s="1">
-        <v>0</v>
+        <v>14.1466</v>
       </c>
       <c r="M6" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N6" s="1">
-        <v>-10545.4681</v>
+        <v>0</v>
       </c>
       <c r="O6" s="1">
-        <v>0</v>
+        <v>10000</v>
       </c>
       <c r="P6" s="1">
-        <v>48024.549</v>
+        <v>-10054.4018</v>
       </c>
       <c r="Q6" s="3">
-        <v>-0.0499</v>
+        <v>-0.0629</v>
       </c>
     </row>
     <row r="7" spans="1:17">
@@ -1730,43 +1721,43 @@
         <v>13.0538</v>
       </c>
       <c r="E7" s="1">
-        <v>60000</v>
+        <v>3623.4768</v>
       </c>
       <c r="F7" s="1">
         <v>766.0605</v>
       </c>
       <c r="G7" s="1">
-        <v>4426.7751</v>
+        <v>60000</v>
       </c>
       <c r="H7" s="1">
-        <v>57486.5438</v>
+        <v>47054.8321</v>
       </c>
       <c r="I7" s="1">
-        <v>60965.2796</v>
+        <v>0</v>
       </c>
       <c r="J7" s="1">
-        <v>13.7719</v>
+        <v>47054.8321</v>
       </c>
       <c r="K7" s="1">
-        <v>0</v>
+        <v>50474.2133</v>
       </c>
       <c r="L7" s="1">
-        <v>0</v>
+        <v>13.9298</v>
       </c>
       <c r="M7" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N7" s="1">
+        <v>0</v>
+      </c>
+      <c r="O7" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P7" s="1">
         <v>-10000</v>
       </c>
-      <c r="O7" s="1">
-        <v>0</v>
-      </c>
-      <c r="P7" s="1">
-        <v>57486.5438</v>
-      </c>
       <c r="Q7" s="3">
-        <v>-0.009299999999999999</v>
+        <v>-0.0112</v>
       </c>
     </row>
     <row r="8" spans="1:17">
@@ -1783,43 +1774,43 @@
         <v>13.8433</v>
       </c>
       <c r="E8" s="1">
+        <v>4389.5373</v>
+      </c>
+      <c r="F8" s="1">
+        <v>693.4239</v>
+      </c>
+      <c r="G8" s="1">
         <v>70000</v>
       </c>
-      <c r="F8" s="1">
-        <v>656.1861</v>
-      </c>
-      <c r="G8" s="1">
-        <v>5082.9612</v>
-      </c>
       <c r="H8" s="1">
-        <v>70000</v>
+        <v>60450.5124</v>
       </c>
       <c r="I8" s="1">
-        <v>70049.06080000001</v>
+        <v>0</v>
       </c>
       <c r="J8" s="1">
-        <v>13.7812</v>
+        <v>60450.5124</v>
       </c>
       <c r="K8" s="1">
-        <v>0</v>
+        <v>60073.4888</v>
       </c>
       <c r="L8" s="1">
-        <v>0</v>
+        <v>13.6856</v>
       </c>
       <c r="M8" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N8" s="1">
-        <v>-9083.781199999999</v>
+        <v>0</v>
       </c>
       <c r="O8" s="1">
-        <v>916.2188</v>
+        <v>10000</v>
       </c>
       <c r="P8" s="1">
-        <v>70916.2188</v>
+        <v>-9599.2755</v>
       </c>
       <c r="Q8" s="3">
-        <v>0.0508</v>
+        <v>0.0595</v>
       </c>
     </row>
     <row r="9" spans="1:17">
@@ -1836,43 +1827,43 @@
         <v>14.4086</v>
       </c>
       <c r="E9" s="1">
-        <v>80000</v>
+        <v>5082.9612</v>
       </c>
       <c r="F9" s="1">
         <v>498.2135</v>
       </c>
       <c r="G9" s="1">
-        <v>5581.1747</v>
+        <v>80000</v>
       </c>
       <c r="H9" s="1">
-        <v>80000</v>
+        <v>72858.6574</v>
       </c>
       <c r="I9" s="1">
-        <v>77227.62</v>
+        <v>400.7245</v>
       </c>
       <c r="J9" s="1">
-        <v>13.8372</v>
+        <v>73259.38189999999</v>
       </c>
       <c r="K9" s="1">
-        <v>0</v>
+        <v>67252.048</v>
       </c>
       <c r="L9" s="1">
-        <v>0</v>
+        <v>13.2309</v>
       </c>
       <c r="M9" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N9" s="1">
+        <v>0</v>
+      </c>
+      <c r="O9" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P9" s="1">
         <v>-7178.5592</v>
       </c>
-      <c r="O9" s="1">
-        <v>3737.6596</v>
-      </c>
-      <c r="P9" s="1">
-        <v>83737.6596</v>
-      </c>
       <c r="Q9" s="3">
-        <v>0.0349</v>
+        <v>0.0399</v>
       </c>
     </row>
     <row r="10" spans="1:17">
@@ -1889,43 +1880,43 @@
         <v>14.9338</v>
       </c>
       <c r="E10" s="1">
-        <v>90000</v>
+        <v>5581.1747</v>
       </c>
       <c r="F10" s="1">
         <v>476.8613</v>
       </c>
       <c r="G10" s="1">
-        <v>6058.036</v>
+        <v>90000</v>
       </c>
       <c r="H10" s="1">
-        <v>90000</v>
+        <v>82915.6057</v>
       </c>
       <c r="I10" s="1">
-        <v>84348.9711</v>
+        <v>3222.1653</v>
       </c>
       <c r="J10" s="1">
-        <v>13.9235</v>
+        <v>86137.77099999999</v>
       </c>
       <c r="K10" s="1">
-        <v>0</v>
+        <v>74373.3991</v>
       </c>
       <c r="L10" s="1">
-        <v>0</v>
+        <v>13.3258</v>
       </c>
       <c r="M10" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N10" s="1">
+        <v>0</v>
+      </c>
+      <c r="O10" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P10" s="1">
         <v>-7121.3511</v>
       </c>
-      <c r="O10" s="1">
-        <v>6616.3085</v>
-      </c>
-      <c r="P10" s="1">
-        <v>96616.3085</v>
-      </c>
       <c r="Q10" s="3">
-        <v>0.0307</v>
+        <v>0.0346</v>
       </c>
     </row>
     <row r="11" spans="1:17">
@@ -1942,43 +1933,43 @@
         <v>15.9313</v>
       </c>
       <c r="E11" s="1">
-        <v>100000</v>
+        <v>6058.036</v>
       </c>
       <c r="F11" s="1">
         <v>251.6298</v>
       </c>
       <c r="G11" s="1">
-        <v>6309.6658</v>
+        <v>100000</v>
       </c>
       <c r="H11" s="1">
-        <v>100000</v>
+        <v>96011.99490000001</v>
       </c>
       <c r="I11" s="1">
-        <v>88357.7608</v>
+        <v>6100.8143</v>
       </c>
       <c r="J11" s="1">
-        <v>14.0036</v>
+        <v>102112.8092</v>
       </c>
       <c r="K11" s="1">
-        <v>0</v>
+        <v>78382.1888</v>
       </c>
       <c r="L11" s="1">
-        <v>0</v>
+        <v>12.9385</v>
       </c>
       <c r="M11" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N11" s="1">
+        <v>0</v>
+      </c>
+      <c r="O11" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P11" s="1">
         <v>-4008.7897</v>
       </c>
-      <c r="O11" s="1">
-        <v>12607.5188</v>
-      </c>
-      <c r="P11" s="1">
-        <v>112607.5188</v>
-      </c>
       <c r="Q11" s="3">
-        <v>0.0562</v>
+        <v>0.0622</v>
       </c>
     </row>
     <row r="12" spans="1:17">
@@ -1995,43 +1986,43 @@
         <v>17.0207</v>
       </c>
       <c r="E12" s="1">
-        <v>110000</v>
+        <v>6309.6658</v>
       </c>
       <c r="F12" s="1">
         <v>186.7553</v>
       </c>
       <c r="G12" s="1">
-        <v>6496.4211</v>
+        <v>110000</v>
       </c>
       <c r="H12" s="1">
-        <v>110000</v>
+        <v>106837.7848</v>
       </c>
       <c r="I12" s="1">
-        <v>91536.46649999999</v>
+        <v>12092.0246</v>
       </c>
       <c r="J12" s="1">
-        <v>14.0903</v>
+        <v>118929.8094</v>
       </c>
       <c r="K12" s="1">
-        <v>0</v>
+        <v>81560.89449999999</v>
       </c>
       <c r="L12" s="1">
-        <v>0</v>
+        <v>12.9263</v>
       </c>
       <c r="M12" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N12" s="1">
+        <v>0</v>
+      </c>
+      <c r="O12" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P12" s="1">
         <v>-3178.7057</v>
       </c>
-      <c r="O12" s="1">
-        <v>19428.8131</v>
-      </c>
-      <c r="P12" s="1">
-        <v>129428.8131</v>
-      </c>
       <c r="Q12" s="3">
-        <v>0.0556</v>
+        <v>0.0608</v>
       </c>
     </row>
     <row r="13" spans="1:17">
@@ -2048,43 +2039,43 @@
         <v>17.4608</v>
       </c>
       <c r="E13" s="1">
-        <v>120000</v>
+        <v>6496.4211</v>
       </c>
       <c r="F13" s="1">
         <v>411.9623</v>
       </c>
       <c r="G13" s="1">
-        <v>6908.3833</v>
+        <v>120000</v>
       </c>
       <c r="H13" s="1">
-        <v>120000</v>
+        <v>112844.1331</v>
       </c>
       <c r="I13" s="1">
-        <v>98729.6571</v>
+        <v>18913.3189</v>
       </c>
       <c r="J13" s="1">
-        <v>14.2913</v>
+        <v>131757.452</v>
       </c>
       <c r="K13" s="1">
-        <v>0</v>
+        <v>88754.0851</v>
       </c>
       <c r="L13" s="1">
-        <v>0</v>
+        <v>13.662</v>
       </c>
       <c r="M13" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N13" s="1">
+        <v>0</v>
+      </c>
+      <c r="O13" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P13" s="1">
         <v>-7193.1906</v>
       </c>
-      <c r="O13" s="1">
-        <v>22235.6225</v>
-      </c>
-      <c r="P13" s="1">
-        <v>142235.6225</v>
-      </c>
       <c r="Q13" s="3">
-        <v>0.0201</v>
+        <v>0.0219</v>
       </c>
     </row>
     <row r="14" spans="1:17">
@@ -2101,7 +2092,7 @@
         <v>16.886</v>
       </c>
       <c r="E14" s="1">
-        <v>0</v>
+        <v>6908.3833</v>
       </c>
       <c r="F14" s="1">
         <v>-6908.3833</v>
@@ -2110,34 +2101,34 @@
         <v>0</v>
       </c>
       <c r="H14" s="1">
-        <v>0</v>
+        <v>116050.4773</v>
       </c>
       <c r="I14" s="1">
-        <v>98729.6571</v>
+        <v>21720.1282</v>
       </c>
       <c r="J14" s="1">
-        <v>14.2913</v>
+        <v>137770.6055</v>
       </c>
       <c r="K14" s="1">
-        <v>0</v>
+        <v>88754.0851</v>
       </c>
       <c r="L14" s="1">
-        <v>0</v>
+        <v>12.8473</v>
       </c>
       <c r="M14" s="1">
         <v>0</v>
       </c>
       <c r="N14" s="1">
+        <v>0</v>
+      </c>
+      <c r="O14" s="1">
+        <v>0</v>
+      </c>
+      <c r="P14" s="1">
         <v>116050.4773</v>
       </c>
-      <c r="O14" s="1">
-        <v>138286.0997</v>
-      </c>
-      <c r="P14" s="1">
-        <v>138286.0997</v>
-      </c>
       <c r="Q14" s="3">
-        <v>-0.0916</v>
+        <v>-0.0281</v>
       </c>
     </row>
   </sheetData>
@@ -2157,24 +2148,24 @@
     <col min="2" max="2" width="9.7109375" style="1" customWidth="1"/>
     <col min="3" max="3" width="11.7109375" style="1" customWidth="1"/>
     <col min="4" max="4" width="13.7109375" style="1" customWidth="1"/>
-    <col min="5" max="5" width="16.7109375" style="1" customWidth="1"/>
+    <col min="5" max="5" width="14.7109375" style="1" customWidth="1"/>
     <col min="6" max="6" width="15.7109375" style="1" customWidth="1"/>
-    <col min="7" max="7" width="14.7109375" style="1" customWidth="1"/>
+    <col min="7" max="7" width="16.7109375" style="1" customWidth="1"/>
     <col min="8" max="8" width="17.7109375" style="1" customWidth="1"/>
-    <col min="9" max="9" width="13.7109375" style="1" customWidth="1"/>
-    <col min="10" max="10" width="14.7109375" style="1" customWidth="1"/>
-    <col min="11" max="11" width="6.7109375" style="1" customWidth="1"/>
-    <col min="12" max="12" width="15.7109375" style="1" customWidth="1"/>
-    <col min="13" max="13" width="9.7109375" style="1" customWidth="1"/>
-    <col min="14" max="14" width="13.7109375" style="1" customWidth="1"/>
-    <col min="15" max="15" width="13.7109375" style="1" customWidth="1"/>
+    <col min="9" max="9" width="12.7109375" style="1" customWidth="1"/>
+    <col min="10" max="10" width="13.7109375" style="1" customWidth="1"/>
+    <col min="11" max="11" width="12.7109375" style="1" customWidth="1"/>
+    <col min="12" max="12" width="14.7109375" style="1" customWidth="1"/>
+    <col min="13" max="13" width="6.7109375" style="1" customWidth="1"/>
+    <col min="14" max="14" width="15.7109375" style="1" customWidth="1"/>
+    <col min="15" max="15" width="9.7109375" style="1" customWidth="1"/>
     <col min="16" max="16" width="13.7109375" style="1" customWidth="1"/>
     <col min="17" max="17" width="9.7109375" style="3" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:17">
       <c r="A1" s="2" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>0</v>
@@ -2222,7 +2213,7 @@
         <v>15</v>
       </c>
       <c r="Q1" s="2" t="s">
-        <v>1</v>
+        <v>16</v>
       </c>
     </row>
     <row r="2" spans="1:17">
@@ -2239,43 +2230,37 @@
         <v>14.2341</v>
       </c>
       <c r="E2" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="F2" s="1">
         <v>702.5383</v>
       </c>
       <c r="G2" s="1">
-        <v>702.5383</v>
+        <v>10000</v>
       </c>
       <c r="H2" s="1">
-        <v>9948.082399999999</v>
+        <v>0</v>
       </c>
       <c r="I2" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="J2" s="1">
-        <v>14.2341</v>
+        <v>0</v>
       </c>
       <c r="K2" s="1">
         <v>0</v>
       </c>
-      <c r="L2" s="1">
-        <v>0</v>
-      </c>
       <c r="M2" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N2" s="1">
+        <v>0</v>
+      </c>
+      <c r="O2" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P2" s="1">
         <v>-10000</v>
-      </c>
-      <c r="O2" s="1">
-        <v>0</v>
-      </c>
-      <c r="P2" s="1">
-        <v>9948.082399999999</v>
-      </c>
-      <c r="Q2" s="3">
-        <v>-0.0052</v>
       </c>
     </row>
     <row r="3" spans="1:17">
@@ -2292,43 +2277,43 @@
         <v>13.7456</v>
       </c>
       <c r="E3" s="1">
-        <v>20050</v>
+        <v>702.5383</v>
       </c>
       <c r="F3" s="1">
         <v>727.5055</v>
       </c>
       <c r="G3" s="1">
-        <v>1430.0438</v>
+        <v>20050</v>
       </c>
       <c r="H3" s="1">
-        <v>19554.8479</v>
+        <v>9606.7191</v>
       </c>
       <c r="I3" s="1">
-        <v>20000</v>
+        <v>0</v>
       </c>
       <c r="J3" s="1">
-        <v>13.9856</v>
+        <v>9606.7191</v>
       </c>
       <c r="K3" s="1">
-        <v>0</v>
+        <v>10000</v>
       </c>
       <c r="L3" s="1">
-        <v>0</v>
+        <v>14.2341</v>
       </c>
       <c r="M3" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N3" s="1">
+        <v>0</v>
+      </c>
+      <c r="O3" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P3" s="1">
         <v>-10000</v>
       </c>
-      <c r="O3" s="1">
-        <v>0</v>
-      </c>
-      <c r="P3" s="1">
-        <v>19554.8479</v>
-      </c>
       <c r="Q3" s="3">
-        <v>-0.0197</v>
+        <v>-0.0393</v>
       </c>
     </row>
     <row r="4" spans="1:17">
@@ -2345,43 +2330,43 @@
         <v>14.5325</v>
       </c>
       <c r="E4" s="1">
-        <v>30150.25</v>
+        <v>1430.0438</v>
       </c>
       <c r="F4" s="1">
         <v>655.454</v>
       </c>
       <c r="G4" s="1">
-        <v>2085.4978</v>
+        <v>30150.25</v>
       </c>
       <c r="H4" s="1">
-        <v>30150.25</v>
+        <v>20674.2862</v>
       </c>
       <c r="I4" s="1">
-        <v>29525.385</v>
+        <v>0</v>
       </c>
       <c r="J4" s="1">
-        <v>14.1575</v>
+        <v>20674.2862</v>
       </c>
       <c r="K4" s="1">
+        <v>19525.385</v>
+      </c>
+      <c r="L4" s="1">
+        <v>13.6537</v>
+      </c>
+      <c r="M4" s="1">
         <v>0.75</v>
       </c>
-      <c r="L4" s="1">
-        <v>965.2796</v>
-      </c>
-      <c r="M4" s="1">
-        <v>10000</v>
-      </c>
       <c r="N4" s="1">
-        <v>-8560.1054</v>
+        <v>474.2133</v>
       </c>
       <c r="O4" s="1">
-        <v>1439.8946</v>
+        <v>10000</v>
       </c>
       <c r="P4" s="1">
-        <v>31590.1446</v>
+        <v>-9051.171700000001</v>
       </c>
       <c r="Q4" s="3">
-        <v>0.0689</v>
+        <v>0.0544</v>
       </c>
     </row>
     <row r="5" spans="1:17">
@@ -2398,43 +2383,43 @@
         <v>14.0538</v>
       </c>
       <c r="E5" s="1">
+        <v>2085.4978</v>
+      </c>
+      <c r="F5" s="1">
+        <v>779.0653</v>
+      </c>
+      <c r="G5" s="1">
         <v>40301.0012</v>
       </c>
-      <c r="F5" s="1">
-        <v>797.0778</v>
-      </c>
-      <c r="G5" s="1">
-        <v>2882.5756</v>
-      </c>
       <c r="H5" s="1">
-        <v>40301.0012</v>
+        <v>29157.136</v>
       </c>
       <c r="I5" s="1">
-        <v>40727.3573</v>
+        <v>948.8283</v>
       </c>
       <c r="J5" s="1">
-        <v>14.1288</v>
+        <v>30105.9643</v>
       </c>
       <c r="K5" s="1">
-        <v>0</v>
+        <v>30474.2133</v>
       </c>
       <c r="L5" s="1">
-        <v>0</v>
+        <v>14.6124</v>
       </c>
       <c r="M5" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N5" s="1">
-        <v>-11201.9723</v>
+        <v>0</v>
       </c>
       <c r="O5" s="1">
-        <v>237.9223</v>
+        <v>10000</v>
       </c>
       <c r="P5" s="1">
-        <v>40538.9235</v>
+        <v>-10948.8283</v>
       </c>
       <c r="Q5" s="3">
-        <v>-0.0253</v>
+        <v>-0.0185</v>
       </c>
     </row>
     <row r="6" spans="1:17">
@@ -2451,43 +2436,43 @@
         <v>13.1873</v>
       </c>
       <c r="E6" s="1">
+        <v>2864.5631</v>
+      </c>
+      <c r="F6" s="1">
+        <v>758.3053</v>
+      </c>
+      <c r="G6" s="1">
         <v>50502.5063</v>
       </c>
-      <c r="F6" s="1">
-        <v>776.3471</v>
-      </c>
-      <c r="G6" s="1">
-        <v>3658.9227</v>
-      </c>
       <c r="H6" s="1">
-        <v>48001.0412</v>
+        <v>37579.917</v>
       </c>
       <c r="I6" s="1">
-        <v>50965.2796</v>
+        <v>0</v>
       </c>
       <c r="J6" s="1">
-        <v>13.929</v>
+        <v>37579.917</v>
       </c>
       <c r="K6" s="1">
-        <v>0</v>
+        <v>40474.2133</v>
       </c>
       <c r="L6" s="1">
-        <v>0</v>
+        <v>14.1293</v>
       </c>
       <c r="M6" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N6" s="1">
-        <v>-10237.9223</v>
+        <v>0</v>
       </c>
       <c r="O6" s="1">
-        <v>0</v>
+        <v>10000</v>
       </c>
       <c r="P6" s="1">
-        <v>48001.0412</v>
+        <v>-10000</v>
       </c>
       <c r="Q6" s="3">
-        <v>-0.0502</v>
+        <v>-0.063</v>
       </c>
     </row>
     <row r="7" spans="1:17">
@@ -2504,43 +2489,43 @@
         <v>13.0538</v>
       </c>
       <c r="E7" s="1">
-        <v>60755.0188</v>
+        <v>3622.8685</v>
       </c>
       <c r="F7" s="1">
         <v>766.0605</v>
       </c>
       <c r="G7" s="1">
-        <v>4424.9832</v>
+        <v>60755.0188</v>
       </c>
       <c r="H7" s="1">
-        <v>57463.274</v>
+        <v>47046.932</v>
       </c>
       <c r="I7" s="1">
-        <v>60965.2796</v>
+        <v>0</v>
       </c>
       <c r="J7" s="1">
-        <v>13.7775</v>
+        <v>47046.932</v>
       </c>
       <c r="K7" s="1">
-        <v>0</v>
+        <v>50474.2133</v>
       </c>
       <c r="L7" s="1">
-        <v>0</v>
+        <v>13.9321</v>
       </c>
       <c r="M7" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N7" s="1">
+        <v>0</v>
+      </c>
+      <c r="O7" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P7" s="1">
         <v>-10000</v>
       </c>
-      <c r="O7" s="1">
-        <v>0</v>
-      </c>
-      <c r="P7" s="1">
-        <v>57463.274</v>
-      </c>
       <c r="Q7" s="3">
-        <v>-0.009299999999999999</v>
+        <v>-0.0112</v>
       </c>
     </row>
     <row r="8" spans="1:17">
@@ -2557,43 +2542,43 @@
         <v>13.8433</v>
       </c>
       <c r="E8" s="1">
-        <v>71058.7939</v>
+        <v>4388.9289</v>
       </c>
       <c r="F8" s="1">
         <v>722.3711</v>
       </c>
       <c r="G8" s="1">
-        <v>5147.3543</v>
+        <v>71058.7939</v>
       </c>
       <c r="H8" s="1">
-        <v>70886.7895</v>
+        <v>60442.1345</v>
       </c>
       <c r="I8" s="1">
-        <v>70965.27959999999</v>
+        <v>0</v>
       </c>
       <c r="J8" s="1">
-        <v>13.7867</v>
+        <v>60442.1345</v>
       </c>
       <c r="K8" s="1">
-        <v>0</v>
+        <v>60474.2133</v>
       </c>
       <c r="L8" s="1">
-        <v>0</v>
+        <v>13.7788</v>
       </c>
       <c r="M8" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N8" s="1">
+        <v>0</v>
+      </c>
+      <c r="O8" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P8" s="1">
         <v>-10000</v>
       </c>
-      <c r="O8" s="1">
-        <v>0</v>
-      </c>
-      <c r="P8" s="1">
-        <v>70886.7895</v>
-      </c>
       <c r="Q8" s="3">
-        <v>0.0507</v>
+        <v>0.0595</v>
       </c>
     </row>
     <row r="9" spans="1:17">
@@ -2610,43 +2595,43 @@
         <v>14.4086</v>
       </c>
       <c r="E9" s="1">
+        <v>5111.3</v>
+      </c>
+      <c r="F9" s="1">
+        <v>568.5281</v>
+      </c>
+      <c r="G9" s="1">
         <v>81414.0879</v>
       </c>
-      <c r="F9" s="1">
-        <v>532.4738</v>
-      </c>
-      <c r="G9" s="1">
-        <v>5679.8281</v>
-      </c>
       <c r="H9" s="1">
-        <v>81414.0879</v>
+        <v>73264.8634</v>
       </c>
       <c r="I9" s="1">
-        <v>78637.4816</v>
+        <v>0</v>
       </c>
       <c r="J9" s="1">
-        <v>13.845</v>
+        <v>73264.8634</v>
       </c>
       <c r="K9" s="1">
-        <v>0</v>
+        <v>68665.9069</v>
       </c>
       <c r="L9" s="1">
-        <v>0</v>
+        <v>13.4341</v>
       </c>
       <c r="M9" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N9" s="1">
-        <v>-7672.2021</v>
+        <v>0</v>
       </c>
       <c r="O9" s="1">
-        <v>2327.7979</v>
+        <v>10000</v>
       </c>
       <c r="P9" s="1">
-        <v>83741.8858</v>
+        <v>-8191.6935</v>
       </c>
       <c r="Q9" s="3">
-        <v>0.0353</v>
+        <v>0.0401</v>
       </c>
     </row>
     <row r="10" spans="1:17">
@@ -2663,43 +2648,43 @@
         <v>14.9338</v>
       </c>
       <c r="E10" s="1">
-        <v>91821.1583</v>
+        <v>5679.8281</v>
       </c>
       <c r="F10" s="1">
         <v>500.7928</v>
       </c>
       <c r="G10" s="1">
-        <v>6180.6209</v>
+        <v>91821.1583</v>
       </c>
       <c r="H10" s="1">
-        <v>91821.1583</v>
+        <v>84381.23</v>
       </c>
       <c r="I10" s="1">
-        <v>86116.2213</v>
+        <v>1808.3065</v>
       </c>
       <c r="J10" s="1">
-        <v>13.9333</v>
+        <v>86189.5365</v>
       </c>
       <c r="K10" s="1">
-        <v>0</v>
+        <v>76144.64659999999</v>
       </c>
       <c r="L10" s="1">
-        <v>0</v>
+        <v>13.4062</v>
       </c>
       <c r="M10" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N10" s="1">
+        <v>0</v>
+      </c>
+      <c r="O10" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P10" s="1">
         <v>-7478.7397</v>
       </c>
-      <c r="O10" s="1">
-        <v>4849.0582</v>
-      </c>
-      <c r="P10" s="1">
-        <v>96670.21649999999</v>
-      </c>
       <c r="Q10" s="3">
-        <v>0.0312</v>
+        <v>0.0351</v>
       </c>
     </row>
     <row r="11" spans="1:17">
@@ -2716,43 +2701,43 @@
         <v>15.9313</v>
       </c>
       <c r="E11" s="1">
-        <v>102280.2641</v>
+        <v>6180.6209</v>
       </c>
       <c r="F11" s="1">
         <v>272.9219</v>
       </c>
       <c r="G11" s="1">
-        <v>6453.5428</v>
+        <v>102280.2641</v>
       </c>
       <c r="H11" s="1">
-        <v>102280.2641</v>
+        <v>97954.80650000001</v>
       </c>
       <c r="I11" s="1">
-        <v>90464.22229999999</v>
+        <v>4329.5668</v>
       </c>
       <c r="J11" s="1">
-        <v>14.0178</v>
+        <v>102284.3732</v>
       </c>
       <c r="K11" s="1">
-        <v>0</v>
+        <v>80492.64750000001</v>
       </c>
       <c r="L11" s="1">
-        <v>0</v>
+        <v>13.0234</v>
       </c>
       <c r="M11" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N11" s="1">
+        <v>0</v>
+      </c>
+      <c r="O11" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P11" s="1">
         <v>-4348.001</v>
       </c>
-      <c r="O11" s="1">
-        <v>10501.0573</v>
-      </c>
-      <c r="P11" s="1">
-        <v>112781.3214</v>
-      </c>
       <c r="Q11" s="3">
-        <v>0.0573</v>
+        <v>0.0634</v>
       </c>
     </row>
     <row r="12" spans="1:17">
@@ -2769,43 +2754,43 @@
         <v>17.0207</v>
       </c>
       <c r="E12" s="1">
-        <v>112791.6654</v>
+        <v>6453.5428</v>
       </c>
       <c r="F12" s="1">
         <v>207.7495</v>
       </c>
       <c r="G12" s="1">
-        <v>6661.2923</v>
+        <v>112791.6654</v>
       </c>
       <c r="H12" s="1">
-        <v>112791.6654</v>
+        <v>109273.9684</v>
       </c>
       <c r="I12" s="1">
-        <v>94000.2635</v>
+        <v>9981.5658</v>
       </c>
       <c r="J12" s="1">
-        <v>14.1114</v>
+        <v>119255.5342</v>
       </c>
       <c r="K12" s="1">
-        <v>0</v>
+        <v>84028.6888</v>
       </c>
       <c r="L12" s="1">
-        <v>0</v>
+        <v>13.0206</v>
       </c>
       <c r="M12" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N12" s="1">
+        <v>0</v>
+      </c>
+      <c r="O12" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P12" s="1">
         <v>-3536.0412</v>
       </c>
-      <c r="O12" s="1">
-        <v>16965.016</v>
-      </c>
-      <c r="P12" s="1">
-        <v>129756.6814</v>
-      </c>
       <c r="Q12" s="3">
-        <v>0.0568</v>
+        <v>0.0621</v>
       </c>
     </row>
     <row r="13" spans="1:17">
@@ -2822,43 +2807,43 @@
         <v>17.4608</v>
       </c>
       <c r="E13" s="1">
-        <v>123355.6237</v>
+        <v>6661.2923</v>
       </c>
       <c r="F13" s="1">
         <v>440.2738</v>
       </c>
       <c r="G13" s="1">
-        <v>7101.5661</v>
+        <v>123355.6237</v>
       </c>
       <c r="H13" s="1">
-        <v>123355.6237</v>
+        <v>115707.9792</v>
       </c>
       <c r="I13" s="1">
-        <v>101687.7969</v>
+        <v>16445.5246</v>
       </c>
       <c r="J13" s="1">
-        <v>14.3191</v>
+        <v>132153.5037</v>
       </c>
       <c r="K13" s="1">
-        <v>0</v>
+        <v>91716.2221</v>
       </c>
       <c r="L13" s="1">
-        <v>0</v>
+        <v>13.7685</v>
       </c>
       <c r="M13" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N13" s="1">
+        <v>0</v>
+      </c>
+      <c r="O13" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P13" s="1">
         <v>-7687.5334</v>
       </c>
-      <c r="O13" s="1">
-        <v>19277.4827</v>
-      </c>
-      <c r="P13" s="1">
-        <v>142633.1064</v>
-      </c>
       <c r="Q13" s="3">
-        <v>0.0206</v>
+        <v>0.0224</v>
       </c>
     </row>
     <row r="14" spans="1:17">
@@ -2875,7 +2860,7 @@
         <v>16.886</v>
       </c>
       <c r="E14" s="1">
-        <v>0</v>
+        <v>7101.5661</v>
       </c>
       <c r="F14" s="1">
         <v>-7101.5661</v>
@@ -2884,34 +2869,34 @@
         <v>0</v>
       </c>
       <c r="H14" s="1">
-        <v>0</v>
+        <v>119295.6584</v>
       </c>
       <c r="I14" s="1">
-        <v>101687.7969</v>
+        <v>18757.9912</v>
       </c>
       <c r="J14" s="1">
-        <v>14.3191</v>
+        <v>138053.6496</v>
       </c>
       <c r="K14" s="1">
-        <v>0</v>
+        <v>91716.2221</v>
       </c>
       <c r="L14" s="1">
-        <v>0</v>
+        <v>12.9149</v>
       </c>
       <c r="M14" s="1">
         <v>0</v>
       </c>
       <c r="N14" s="1">
+        <v>0</v>
+      </c>
+      <c r="O14" s="1">
+        <v>0</v>
+      </c>
+      <c r="P14" s="1">
         <v>119295.6584</v>
       </c>
-      <c r="O14" s="1">
-        <v>138573.1411</v>
-      </c>
-      <c r="P14" s="1">
-        <v>138573.1411</v>
-      </c>
       <c r="Q14" s="3">
-        <v>-0.0921</v>
+        <v>-0.0288</v>
       </c>
     </row>
   </sheetData>
@@ -2931,24 +2916,24 @@
     <col min="2" max="2" width="9.7109375" style="1" customWidth="1"/>
     <col min="3" max="3" width="11.7109375" style="1" customWidth="1"/>
     <col min="4" max="4" width="13.7109375" style="1" customWidth="1"/>
-    <col min="5" max="5" width="16.7109375" style="1" customWidth="1"/>
+    <col min="5" max="5" width="14.7109375" style="1" customWidth="1"/>
     <col min="6" max="6" width="15.7109375" style="1" customWidth="1"/>
-    <col min="7" max="7" width="14.7109375" style="1" customWidth="1"/>
+    <col min="7" max="7" width="16.7109375" style="1" customWidth="1"/>
     <col min="8" max="8" width="17.7109375" style="1" customWidth="1"/>
-    <col min="9" max="9" width="13.7109375" style="1" customWidth="1"/>
-    <col min="10" max="10" width="14.7109375" style="1" customWidth="1"/>
-    <col min="11" max="11" width="6.7109375" style="1" customWidth="1"/>
-    <col min="12" max="12" width="15.7109375" style="1" customWidth="1"/>
-    <col min="13" max="13" width="9.7109375" style="1" customWidth="1"/>
-    <col min="14" max="14" width="13.7109375" style="1" customWidth="1"/>
-    <col min="15" max="15" width="13.7109375" style="1" customWidth="1"/>
+    <col min="9" max="9" width="12.7109375" style="1" customWidth="1"/>
+    <col min="10" max="10" width="13.7109375" style="1" customWidth="1"/>
+    <col min="11" max="11" width="12.7109375" style="1" customWidth="1"/>
+    <col min="12" max="12" width="14.7109375" style="1" customWidth="1"/>
+    <col min="13" max="13" width="6.7109375" style="1" customWidth="1"/>
+    <col min="14" max="14" width="15.7109375" style="1" customWidth="1"/>
+    <col min="15" max="15" width="9.7109375" style="1" customWidth="1"/>
     <col min="16" max="16" width="13.7109375" style="1" customWidth="1"/>
     <col min="17" max="17" width="9.7109375" style="3" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:17">
       <c r="A1" s="2" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>0</v>
@@ -2996,7 +2981,7 @@
         <v>15</v>
       </c>
       <c r="Q1" s="2" t="s">
-        <v>1</v>
+        <v>16</v>
       </c>
     </row>
     <row r="2" spans="1:17">
@@ -3013,43 +2998,37 @@
         <v>14.2341</v>
       </c>
       <c r="E2" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="F2" s="1">
         <v>702.5383</v>
       </c>
       <c r="G2" s="1">
-        <v>702.5383</v>
+        <v>10000</v>
       </c>
       <c r="H2" s="1">
-        <v>9948.082399999999</v>
+        <v>0</v>
       </c>
       <c r="I2" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="J2" s="1">
-        <v>14.2341</v>
+        <v>0</v>
       </c>
       <c r="K2" s="1">
         <v>0</v>
       </c>
-      <c r="L2" s="1">
-        <v>0</v>
-      </c>
       <c r="M2" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N2" s="1">
+        <v>0</v>
+      </c>
+      <c r="O2" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P2" s="1">
         <v>-10000</v>
-      </c>
-      <c r="O2" s="1">
-        <v>0</v>
-      </c>
-      <c r="P2" s="1">
-        <v>9948.082399999999</v>
-      </c>
-      <c r="Q2" s="3">
-        <v>-0.0052</v>
       </c>
     </row>
     <row r="3" spans="1:17">
@@ -3066,43 +3045,43 @@
         <v>13.7456</v>
       </c>
       <c r="E3" s="1">
-        <v>20100</v>
+        <v>702.5383</v>
       </c>
       <c r="F3" s="1">
         <v>727.5055</v>
       </c>
       <c r="G3" s="1">
-        <v>1430.0438</v>
+        <v>20100</v>
       </c>
       <c r="H3" s="1">
-        <v>19554.8479</v>
+        <v>9606.7191</v>
       </c>
       <c r="I3" s="1">
-        <v>20000</v>
+        <v>0</v>
       </c>
       <c r="J3" s="1">
-        <v>13.9856</v>
+        <v>9606.7191</v>
       </c>
       <c r="K3" s="1">
-        <v>0</v>
+        <v>10000</v>
       </c>
       <c r="L3" s="1">
-        <v>0</v>
+        <v>14.2341</v>
       </c>
       <c r="M3" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N3" s="1">
+        <v>0</v>
+      </c>
+      <c r="O3" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P3" s="1">
         <v>-10000</v>
       </c>
-      <c r="O3" s="1">
-        <v>0</v>
-      </c>
-      <c r="P3" s="1">
-        <v>19554.8479</v>
-      </c>
       <c r="Q3" s="3">
-        <v>-0.0197</v>
+        <v>-0.0393</v>
       </c>
     </row>
     <row r="4" spans="1:17">
@@ -3119,43 +3098,43 @@
         <v>14.5325</v>
       </c>
       <c r="E4" s="1">
-        <v>30301</v>
+        <v>1430.0438</v>
       </c>
       <c r="F4" s="1">
         <v>665.8814</v>
       </c>
       <c r="G4" s="1">
-        <v>2095.9252</v>
+        <v>30301</v>
       </c>
       <c r="H4" s="1">
-        <v>30301</v>
+        <v>20674.2862</v>
       </c>
       <c r="I4" s="1">
-        <v>29676.9212</v>
+        <v>0</v>
       </c>
       <c r="J4" s="1">
-        <v>14.1593</v>
+        <v>20674.2862</v>
       </c>
       <c r="K4" s="1">
+        <v>19676.9212</v>
+      </c>
+      <c r="L4" s="1">
+        <v>13.7597</v>
+      </c>
+      <c r="M4" s="1">
         <v>0.75</v>
       </c>
-      <c r="L4" s="1">
-        <v>965.2796</v>
-      </c>
-      <c r="M4" s="1">
-        <v>10000</v>
-      </c>
       <c r="N4" s="1">
-        <v>-8711.6417</v>
+        <v>474.2133</v>
       </c>
       <c r="O4" s="1">
-        <v>1288.3583</v>
+        <v>10000</v>
       </c>
       <c r="P4" s="1">
-        <v>31589.3583</v>
+        <v>-9202.707899999999</v>
       </c>
       <c r="Q4" s="3">
-        <v>0.0688</v>
+        <v>0.0544</v>
       </c>
     </row>
     <row r="5" spans="1:17">
@@ -3172,43 +3151,43 @@
         <v>14.0538</v>
       </c>
       <c r="E5" s="1">
+        <v>2095.9252</v>
+      </c>
+      <c r="F5" s="1">
+        <v>768.2827</v>
+      </c>
+      <c r="G5" s="1">
         <v>40604.01</v>
       </c>
-      <c r="F5" s="1">
-        <v>803.2246</v>
-      </c>
-      <c r="G5" s="1">
-        <v>2899.1498</v>
-      </c>
       <c r="H5" s="1">
-        <v>40532.7237</v>
+        <v>29302.9204</v>
       </c>
       <c r="I5" s="1">
-        <v>40965.2796</v>
+        <v>797.2921</v>
       </c>
       <c r="J5" s="1">
-        <v>14.1301</v>
+        <v>30100.2125</v>
       </c>
       <c r="K5" s="1">
-        <v>0</v>
+        <v>30474.2133</v>
       </c>
       <c r="L5" s="1">
-        <v>0</v>
+        <v>14.5397</v>
       </c>
       <c r="M5" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N5" s="1">
-        <v>-11288.3583</v>
+        <v>0</v>
       </c>
       <c r="O5" s="1">
-        <v>0</v>
+        <v>10000</v>
       </c>
       <c r="P5" s="1">
-        <v>40532.7237</v>
+        <v>-10797.2921</v>
       </c>
       <c r="Q5" s="3">
-        <v>-0.0254</v>
+        <v>-0.0187</v>
       </c>
     </row>
     <row r="6" spans="1:17">
@@ -3225,43 +3204,43 @@
         <v>13.1873</v>
       </c>
       <c r="E6" s="1">
-        <v>51010.0501</v>
+        <v>2864.2079</v>
       </c>
       <c r="F6" s="1">
         <v>758.3053</v>
       </c>
       <c r="G6" s="1">
-        <v>3657.4552</v>
+        <v>51010.0501</v>
       </c>
       <c r="H6" s="1">
-        <v>47981.7885</v>
+        <v>37575.2575</v>
       </c>
       <c r="I6" s="1">
-        <v>50965.2796</v>
+        <v>0</v>
       </c>
       <c r="J6" s="1">
-        <v>13.9346</v>
+        <v>37575.2575</v>
       </c>
       <c r="K6" s="1">
-        <v>0</v>
+        <v>40474.2133</v>
       </c>
       <c r="L6" s="1">
-        <v>0</v>
+        <v>14.131</v>
       </c>
       <c r="M6" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N6" s="1">
+        <v>0</v>
+      </c>
+      <c r="O6" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P6" s="1">
         <v>-10000</v>
       </c>
-      <c r="O6" s="1">
-        <v>0</v>
-      </c>
-      <c r="P6" s="1">
-        <v>47981.7885</v>
-      </c>
       <c r="Q6" s="3">
-        <v>-0.0505</v>
+        <v>-0.063</v>
       </c>
     </row>
     <row r="7" spans="1:17">
@@ -3278,43 +3257,43 @@
         <v>13.0538</v>
       </c>
       <c r="E7" s="1">
-        <v>61520.1506</v>
+        <v>3622.5133</v>
       </c>
       <c r="F7" s="1">
         <v>766.0605</v>
       </c>
       <c r="G7" s="1">
-        <v>4423.5156</v>
+        <v>61520.1506</v>
       </c>
       <c r="H7" s="1">
-        <v>57444.2161</v>
+        <v>47042.3196</v>
       </c>
       <c r="I7" s="1">
-        <v>60965.2796</v>
+        <v>0</v>
       </c>
       <c r="J7" s="1">
-        <v>13.7821</v>
+        <v>47042.3196</v>
       </c>
       <c r="K7" s="1">
-        <v>0</v>
+        <v>50474.2133</v>
       </c>
       <c r="L7" s="1">
-        <v>0</v>
+        <v>13.9335</v>
       </c>
       <c r="M7" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N7" s="1">
+        <v>0</v>
+      </c>
+      <c r="O7" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P7" s="1">
         <v>-10000</v>
       </c>
-      <c r="O7" s="1">
-        <v>0</v>
-      </c>
-      <c r="P7" s="1">
-        <v>57444.2161</v>
-      </c>
       <c r="Q7" s="3">
-        <v>-0.009299999999999999</v>
+        <v>-0.0112</v>
       </c>
     </row>
     <row r="8" spans="1:17">
@@ -3331,43 +3310,43 @@
         <v>13.8433</v>
       </c>
       <c r="E8" s="1">
-        <v>72135.3521</v>
+        <v>4388.5737</v>
       </c>
       <c r="F8" s="1">
         <v>722.3711</v>
       </c>
       <c r="G8" s="1">
-        <v>5145.8867</v>
+        <v>72135.3521</v>
       </c>
       <c r="H8" s="1">
-        <v>70866.579</v>
+        <v>60437.2431</v>
       </c>
       <c r="I8" s="1">
-        <v>70965.27959999999</v>
+        <v>0</v>
       </c>
       <c r="J8" s="1">
-        <v>13.7907</v>
+        <v>60437.2431</v>
       </c>
       <c r="K8" s="1">
-        <v>0</v>
+        <v>60474.2133</v>
       </c>
       <c r="L8" s="1">
-        <v>0</v>
+        <v>13.7799</v>
       </c>
       <c r="M8" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N8" s="1">
+        <v>0</v>
+      </c>
+      <c r="O8" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P8" s="1">
         <v>-10000</v>
       </c>
-      <c r="O8" s="1">
-        <v>0</v>
-      </c>
-      <c r="P8" s="1">
-        <v>70866.579</v>
-      </c>
       <c r="Q8" s="3">
-        <v>0.0507</v>
+        <v>0.0595</v>
       </c>
     </row>
     <row r="9" spans="1:17">
@@ -3384,43 +3363,43 @@
         <v>14.4086</v>
       </c>
       <c r="E9" s="1">
+        <v>5110.9448</v>
+      </c>
+      <c r="F9" s="1">
+        <v>669.527</v>
+      </c>
+      <c r="G9" s="1">
         <v>82856.7056</v>
       </c>
-      <c r="F9" s="1">
-        <v>634.5851</v>
-      </c>
-      <c r="G9" s="1">
-        <v>5780.4719</v>
-      </c>
       <c r="H9" s="1">
-        <v>82856.7056</v>
+        <v>73259.7723</v>
       </c>
       <c r="I9" s="1">
-        <v>80108.76300000001</v>
+        <v>0</v>
       </c>
       <c r="J9" s="1">
-        <v>13.8585</v>
+        <v>73259.7723</v>
       </c>
       <c r="K9" s="1">
-        <v>0</v>
+        <v>70121.16039999999</v>
       </c>
       <c r="L9" s="1">
-        <v>0</v>
+        <v>13.7198</v>
       </c>
       <c r="M9" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N9" s="1">
-        <v>-9143.483399999999</v>
+        <v>0</v>
       </c>
       <c r="O9" s="1">
-        <v>856.5166</v>
+        <v>10000</v>
       </c>
       <c r="P9" s="1">
-        <v>83713.2222</v>
+        <v>-9646.947</v>
       </c>
       <c r="Q9" s="3">
-        <v>0.0352</v>
+        <v>0.0401</v>
       </c>
     </row>
     <row r="10" spans="1:17">
@@ -3437,43 +3416,43 @@
         <v>14.9338</v>
       </c>
       <c r="E10" s="1">
-        <v>93685.2727</v>
+        <v>5780.4719</v>
       </c>
       <c r="F10" s="1">
         <v>525.6254</v>
       </c>
       <c r="G10" s="1">
-        <v>6306.0973</v>
+        <v>93685.2727</v>
       </c>
       <c r="H10" s="1">
-        <v>93685.2727</v>
+        <v>85876.4241</v>
       </c>
       <c r="I10" s="1">
-        <v>87958.3475</v>
+        <v>353.053</v>
       </c>
       <c r="J10" s="1">
-        <v>13.9481</v>
+        <v>86229.4771</v>
       </c>
       <c r="K10" s="1">
-        <v>0</v>
+        <v>77970.74490000001</v>
       </c>
       <c r="L10" s="1">
-        <v>0</v>
+        <v>13.4886</v>
       </c>
       <c r="M10" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N10" s="1">
+        <v>0</v>
+      </c>
+      <c r="O10" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P10" s="1">
         <v>-7849.5845</v>
       </c>
-      <c r="O10" s="1">
-        <v>3006.9321</v>
-      </c>
-      <c r="P10" s="1">
-        <v>96692.2047</v>
-      </c>
       <c r="Q10" s="3">
-        <v>0.0318</v>
+        <v>0.0357</v>
       </c>
     </row>
     <row r="11" spans="1:17">
@@ -3490,43 +3469,43 @@
         <v>15.9313</v>
       </c>
       <c r="E11" s="1">
-        <v>104622.1254</v>
+        <v>6306.0973</v>
       </c>
       <c r="F11" s="1">
         <v>295.2092</v>
       </c>
       <c r="G11" s="1">
-        <v>6601.3064</v>
+        <v>104622.1254</v>
       </c>
       <c r="H11" s="1">
-        <v>104622.1254</v>
+        <v>99943.4436</v>
       </c>
       <c r="I11" s="1">
-        <v>92661.4136</v>
+        <v>2503.4685</v>
       </c>
       <c r="J11" s="1">
-        <v>14.0368</v>
+        <v>102446.9121</v>
       </c>
       <c r="K11" s="1">
-        <v>0</v>
+        <v>82673.811</v>
       </c>
       <c r="L11" s="1">
-        <v>0</v>
+        <v>13.1101</v>
       </c>
       <c r="M11" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N11" s="1">
+        <v>0</v>
+      </c>
+      <c r="O11" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P11" s="1">
         <v>-4703.0661</v>
       </c>
-      <c r="O11" s="1">
-        <v>8303.866</v>
-      </c>
-      <c r="P11" s="1">
-        <v>112925.9914</v>
-      </c>
       <c r="Q11" s="3">
-        <v>0.0584</v>
+        <v>0.0646</v>
       </c>
     </row>
     <row r="12" spans="1:17">
@@ -3543,43 +3522,43 @@
         <v>17.0207</v>
       </c>
       <c r="E12" s="1">
-        <v>115668.3467</v>
+        <v>6601.3064</v>
       </c>
       <c r="F12" s="1">
         <v>229.878</v>
       </c>
       <c r="G12" s="1">
-        <v>6831.1844</v>
+        <v>115668.3467</v>
       </c>
       <c r="H12" s="1">
-        <v>115668.3467</v>
+        <v>111775.9612</v>
       </c>
       <c r="I12" s="1">
-        <v>96574.09729999999</v>
+        <v>7800.4024</v>
       </c>
       <c r="J12" s="1">
-        <v>14.1372</v>
+        <v>119576.3636</v>
       </c>
       <c r="K12" s="1">
-        <v>0</v>
+        <v>86586.4947</v>
       </c>
       <c r="L12" s="1">
-        <v>0</v>
+        <v>13.1166</v>
       </c>
       <c r="M12" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N12" s="1">
+        <v>0</v>
+      </c>
+      <c r="O12" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P12" s="1">
         <v>-3912.6837</v>
       </c>
-      <c r="O12" s="1">
-        <v>14391.1823</v>
-      </c>
-      <c r="P12" s="1">
-        <v>130059.529</v>
-      </c>
       <c r="Q12" s="3">
-        <v>0.058</v>
+        <v>0.0634</v>
       </c>
     </row>
     <row r="13" spans="1:17">
@@ -3596,43 +3575,43 @@
         <v>17.4608</v>
       </c>
       <c r="E13" s="1">
-        <v>126825.0301</v>
+        <v>6831.1844</v>
       </c>
       <c r="F13" s="1">
         <v>470.115</v>
       </c>
       <c r="G13" s="1">
-        <v>7301.2994</v>
+        <v>126825.0301</v>
       </c>
       <c r="H13" s="1">
-        <v>126825.0301</v>
+        <v>118659.0392</v>
       </c>
       <c r="I13" s="1">
-        <v>104782.6806</v>
+        <v>13887.7187</v>
       </c>
       <c r="J13" s="1">
-        <v>14.3512</v>
+        <v>132546.7579</v>
       </c>
       <c r="K13" s="1">
-        <v>0</v>
+        <v>94795.07799999999</v>
       </c>
       <c r="L13" s="1">
-        <v>0</v>
+        <v>13.8768</v>
       </c>
       <c r="M13" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N13" s="1">
+        <v>0</v>
+      </c>
+      <c r="O13" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P13" s="1">
         <v>-8208.5834</v>
       </c>
-      <c r="O13" s="1">
-        <v>16182.5989</v>
-      </c>
-      <c r="P13" s="1">
-        <v>143007.6291</v>
-      </c>
       <c r="Q13" s="3">
-        <v>0.021</v>
+        <v>0.0229</v>
       </c>
     </row>
     <row r="14" spans="1:17">
@@ -3649,7 +3628,7 @@
         <v>16.886</v>
       </c>
       <c r="E14" s="1">
-        <v>0</v>
+        <v>7301.2994</v>
       </c>
       <c r="F14" s="1">
         <v>-7301.2994</v>
@@ -3658,34 +3637,34 @@
         <v>0</v>
       </c>
       <c r="H14" s="1">
-        <v>0</v>
+        <v>122650.8773</v>
       </c>
       <c r="I14" s="1">
-        <v>104782.6806</v>
+        <v>15679.1353</v>
       </c>
       <c r="J14" s="1">
-        <v>14.3512</v>
+        <v>138330.0126</v>
       </c>
       <c r="K14" s="1">
-        <v>0</v>
+        <v>94795.07799999999</v>
       </c>
       <c r="L14" s="1">
-        <v>0</v>
+        <v>12.9833</v>
       </c>
       <c r="M14" s="1">
         <v>0</v>
       </c>
       <c r="N14" s="1">
+        <v>0</v>
+      </c>
+      <c r="O14" s="1">
+        <v>0</v>
+      </c>
+      <c r="P14" s="1">
         <v>122650.8773</v>
       </c>
-      <c r="O14" s="1">
-        <v>138833.4762</v>
-      </c>
-      <c r="P14" s="1">
-        <v>138833.4762</v>
-      </c>
       <c r="Q14" s="3">
-        <v>-0.0926</v>
+        <v>-0.0296</v>
       </c>
     </row>
   </sheetData>
@@ -3705,24 +3684,24 @@
     <col min="2" max="2" width="9.7109375" style="1" customWidth="1"/>
     <col min="3" max="3" width="11.7109375" style="1" customWidth="1"/>
     <col min="4" max="4" width="13.7109375" style="1" customWidth="1"/>
-    <col min="5" max="5" width="16.7109375" style="1" customWidth="1"/>
+    <col min="5" max="5" width="14.7109375" style="1" customWidth="1"/>
     <col min="6" max="6" width="15.7109375" style="1" customWidth="1"/>
-    <col min="7" max="7" width="14.7109375" style="1" customWidth="1"/>
+    <col min="7" max="7" width="16.7109375" style="1" customWidth="1"/>
     <col min="8" max="8" width="17.7109375" style="1" customWidth="1"/>
-    <col min="9" max="9" width="13.7109375" style="1" customWidth="1"/>
-    <col min="10" max="10" width="14.7109375" style="1" customWidth="1"/>
-    <col min="11" max="11" width="6.7109375" style="1" customWidth="1"/>
-    <col min="12" max="12" width="15.7109375" style="1" customWidth="1"/>
-    <col min="13" max="13" width="9.7109375" style="1" customWidth="1"/>
-    <col min="14" max="14" width="13.7109375" style="1" customWidth="1"/>
-    <col min="15" max="15" width="13.7109375" style="1" customWidth="1"/>
+    <col min="9" max="9" width="12.7109375" style="1" customWidth="1"/>
+    <col min="10" max="10" width="13.7109375" style="1" customWidth="1"/>
+    <col min="11" max="11" width="12.7109375" style="1" customWidth="1"/>
+    <col min="12" max="12" width="14.7109375" style="1" customWidth="1"/>
+    <col min="13" max="13" width="6.7109375" style="1" customWidth="1"/>
+    <col min="14" max="14" width="15.7109375" style="1" customWidth="1"/>
+    <col min="15" max="15" width="9.7109375" style="1" customWidth="1"/>
     <col min="16" max="16" width="13.7109375" style="1" customWidth="1"/>
     <col min="17" max="17" width="9.7109375" style="3" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:17">
       <c r="A1" s="2" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>0</v>
@@ -3770,7 +3749,7 @@
         <v>15</v>
       </c>
       <c r="Q1" s="2" t="s">
-        <v>1</v>
+        <v>16</v>
       </c>
     </row>
     <row r="2" spans="1:17">
@@ -3787,43 +3766,37 @@
         <v>14.2341</v>
       </c>
       <c r="E2" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="F2" s="1">
         <v>702.5383</v>
       </c>
       <c r="G2" s="1">
-        <v>702.5383</v>
+        <v>10000</v>
       </c>
       <c r="H2" s="1">
-        <v>9948.082399999999</v>
+        <v>0</v>
       </c>
       <c r="I2" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="J2" s="1">
-        <v>14.2341</v>
+        <v>0</v>
       </c>
       <c r="K2" s="1">
         <v>0</v>
       </c>
-      <c r="L2" s="1">
-        <v>0</v>
-      </c>
       <c r="M2" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N2" s="1">
+        <v>0</v>
+      </c>
+      <c r="O2" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P2" s="1">
         <v>-10000</v>
-      </c>
-      <c r="O2" s="1">
-        <v>0</v>
-      </c>
-      <c r="P2" s="1">
-        <v>9948.082399999999</v>
-      </c>
-      <c r="Q2" s="3">
-        <v>-0.0052</v>
       </c>
     </row>
     <row r="3" spans="1:17">
@@ -3840,43 +3813,43 @@
         <v>13.7456</v>
       </c>
       <c r="E3" s="1">
-        <v>20150</v>
+        <v>702.5383</v>
       </c>
       <c r="F3" s="1">
         <v>727.5055</v>
       </c>
       <c r="G3" s="1">
-        <v>1430.0438</v>
+        <v>20150</v>
       </c>
       <c r="H3" s="1">
-        <v>19554.8479</v>
+        <v>9606.7191</v>
       </c>
       <c r="I3" s="1">
-        <v>20000</v>
+        <v>0</v>
       </c>
       <c r="J3" s="1">
-        <v>13.9856</v>
+        <v>9606.7191</v>
       </c>
       <c r="K3" s="1">
-        <v>0</v>
+        <v>10000</v>
       </c>
       <c r="L3" s="1">
-        <v>0</v>
+        <v>14.2341</v>
       </c>
       <c r="M3" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N3" s="1">
+        <v>0</v>
+      </c>
+      <c r="O3" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P3" s="1">
         <v>-10000</v>
       </c>
-      <c r="O3" s="1">
-        <v>0</v>
-      </c>
-      <c r="P3" s="1">
-        <v>19554.8479</v>
-      </c>
       <c r="Q3" s="3">
-        <v>-0.0197</v>
+        <v>-0.0393</v>
       </c>
     </row>
     <row r="4" spans="1:17">
@@ -3893,43 +3866,43 @@
         <v>14.5325</v>
       </c>
       <c r="E4" s="1">
-        <v>30452.25</v>
+        <v>1430.0438</v>
       </c>
       <c r="F4" s="1">
         <v>676.3434</v>
       </c>
       <c r="G4" s="1">
-        <v>2106.3872</v>
+        <v>30452.25</v>
       </c>
       <c r="H4" s="1">
-        <v>30452.25</v>
+        <v>20674.2862</v>
       </c>
       <c r="I4" s="1">
-        <v>29828.9601</v>
+        <v>0</v>
       </c>
       <c r="J4" s="1">
-        <v>14.1612</v>
+        <v>20674.2862</v>
       </c>
       <c r="K4" s="1">
+        <v>19828.9601</v>
+      </c>
+      <c r="L4" s="1">
+        <v>13.866</v>
+      </c>
+      <c r="M4" s="1">
         <v>0.75</v>
       </c>
-      <c r="L4" s="1">
-        <v>965.2796</v>
-      </c>
-      <c r="M4" s="1">
-        <v>10000</v>
-      </c>
       <c r="N4" s="1">
-        <v>-8863.6805</v>
+        <v>474.2133</v>
       </c>
       <c r="O4" s="1">
-        <v>1136.3195</v>
+        <v>10000</v>
       </c>
       <c r="P4" s="1">
-        <v>31588.5695</v>
+        <v>-9354.7467</v>
       </c>
       <c r="Q4" s="3">
-        <v>0.0688</v>
+        <v>0.0544</v>
       </c>
     </row>
     <row r="5" spans="1:17">
@@ -3946,43 +3919,43 @@
         <v>14.0538</v>
       </c>
       <c r="E5" s="1">
+        <v>2106.3872</v>
+      </c>
+      <c r="F5" s="1">
+        <v>757.4644</v>
+      </c>
+      <c r="G5" s="1">
         <v>40909.0337</v>
       </c>
-      <c r="F5" s="1">
-        <v>792.4063</v>
-      </c>
-      <c r="G5" s="1">
-        <v>2898.7935</v>
-      </c>
       <c r="H5" s="1">
-        <v>40527.7415</v>
+        <v>29449.1884</v>
       </c>
       <c r="I5" s="1">
-        <v>40965.2796</v>
+        <v>645.2533</v>
       </c>
       <c r="J5" s="1">
-        <v>14.1318</v>
+        <v>30094.4417</v>
       </c>
       <c r="K5" s="1">
-        <v>0</v>
+        <v>30474.2133</v>
       </c>
       <c r="L5" s="1">
-        <v>0</v>
+        <v>14.4675</v>
       </c>
       <c r="M5" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N5" s="1">
-        <v>-11136.3195</v>
+        <v>0</v>
       </c>
       <c r="O5" s="1">
-        <v>0</v>
+        <v>10000</v>
       </c>
       <c r="P5" s="1">
-        <v>40527.7415</v>
+        <v>-10645.2533</v>
       </c>
       <c r="Q5" s="3">
-        <v>-0.0255</v>
+        <v>-0.0189</v>
       </c>
     </row>
     <row r="6" spans="1:17">
@@ -3999,43 +3972,43 @@
         <v>13.1873</v>
       </c>
       <c r="E6" s="1">
-        <v>51522.6693</v>
+        <v>2863.8516</v>
       </c>
       <c r="F6" s="1">
         <v>758.3053</v>
       </c>
       <c r="G6" s="1">
-        <v>3657.0988</v>
+        <v>51522.6693</v>
       </c>
       <c r="H6" s="1">
-        <v>47977.1135</v>
+        <v>37570.5825</v>
       </c>
       <c r="I6" s="1">
-        <v>50965.2796</v>
+        <v>0</v>
       </c>
       <c r="J6" s="1">
-        <v>13.936</v>
+        <v>37570.5825</v>
       </c>
       <c r="K6" s="1">
-        <v>0</v>
+        <v>40474.2133</v>
       </c>
       <c r="L6" s="1">
-        <v>0</v>
+        <v>14.1328</v>
       </c>
       <c r="M6" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N6" s="1">
+        <v>0</v>
+      </c>
+      <c r="O6" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P6" s="1">
         <v>-10000</v>
       </c>
-      <c r="O6" s="1">
-        <v>0</v>
-      </c>
-      <c r="P6" s="1">
-        <v>47977.1135</v>
-      </c>
       <c r="Q6" s="3">
-        <v>-0.0505</v>
+        <v>-0.0629</v>
       </c>
     </row>
     <row r="7" spans="1:17">
@@ -4052,43 +4025,43 @@
         <v>13.0538</v>
       </c>
       <c r="E7" s="1">
-        <v>62295.5093</v>
+        <v>3622.1569</v>
       </c>
       <c r="F7" s="1">
         <v>766.0605</v>
       </c>
       <c r="G7" s="1">
-        <v>4423.1593</v>
+        <v>62295.5093</v>
       </c>
       <c r="H7" s="1">
-        <v>57439.5884</v>
+        <v>47037.6919</v>
       </c>
       <c r="I7" s="1">
-        <v>60965.2796</v>
+        <v>0</v>
       </c>
       <c r="J7" s="1">
-        <v>13.7832</v>
+        <v>47037.6919</v>
       </c>
       <c r="K7" s="1">
-        <v>0</v>
+        <v>50474.2133</v>
       </c>
       <c r="L7" s="1">
-        <v>0</v>
+        <v>13.9349</v>
       </c>
       <c r="M7" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N7" s="1">
+        <v>0</v>
+      </c>
+      <c r="O7" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P7" s="1">
         <v>-10000</v>
       </c>
-      <c r="O7" s="1">
-        <v>0</v>
-      </c>
-      <c r="P7" s="1">
-        <v>57439.5884</v>
-      </c>
       <c r="Q7" s="3">
-        <v>-0.009299999999999999</v>
+        <v>-0.0112</v>
       </c>
     </row>
     <row r="8" spans="1:17">
@@ -4105,43 +4078,43 @@
         <v>13.8433</v>
       </c>
       <c r="E8" s="1">
-        <v>73229.94190000001</v>
+        <v>4388.2174</v>
       </c>
       <c r="F8" s="1">
         <v>722.3711</v>
       </c>
       <c r="G8" s="1">
-        <v>5145.5304</v>
+        <v>73229.94190000001</v>
       </c>
       <c r="H8" s="1">
-        <v>70861.6715</v>
+        <v>60432.3356</v>
       </c>
       <c r="I8" s="1">
-        <v>70965.27959999999</v>
+        <v>0</v>
       </c>
       <c r="J8" s="1">
-        <v>13.7916</v>
+        <v>60432.3356</v>
       </c>
       <c r="K8" s="1">
-        <v>0</v>
+        <v>60474.2133</v>
       </c>
       <c r="L8" s="1">
-        <v>0</v>
+        <v>13.781</v>
       </c>
       <c r="M8" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N8" s="1">
+        <v>0</v>
+      </c>
+      <c r="O8" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P8" s="1">
         <v>-10000</v>
       </c>
-      <c r="O8" s="1">
-        <v>0</v>
-      </c>
-      <c r="P8" s="1">
-        <v>70861.6715</v>
-      </c>
       <c r="Q8" s="3">
-        <v>0.0507</v>
+        <v>0.0595</v>
       </c>
     </row>
     <row r="9" spans="1:17">
@@ -4158,43 +4131,43 @@
         <v>14.4086</v>
       </c>
       <c r="E9" s="1">
-        <v>84328.39109999999</v>
+        <v>5110.5885</v>
       </c>
       <c r="F9" s="1">
         <v>694.03</v>
       </c>
       <c r="G9" s="1">
-        <v>5839.5603</v>
+        <v>84328.39109999999</v>
       </c>
       <c r="H9" s="1">
-        <v>83703.6737</v>
+        <v>73254.6643</v>
       </c>
       <c r="I9" s="1">
-        <v>80965.27959999999</v>
+        <v>0</v>
       </c>
       <c r="J9" s="1">
-        <v>13.865</v>
+        <v>73254.6643</v>
       </c>
       <c r="K9" s="1">
-        <v>0</v>
+        <v>70474.2133</v>
       </c>
       <c r="L9" s="1">
-        <v>0</v>
+        <v>13.7898</v>
       </c>
       <c r="M9" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N9" s="1">
+        <v>0</v>
+      </c>
+      <c r="O9" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P9" s="1">
         <v>-10000</v>
       </c>
-      <c r="O9" s="1">
-        <v>0</v>
-      </c>
-      <c r="P9" s="1">
-        <v>83703.6737</v>
-      </c>
       <c r="Q9" s="3">
-        <v>0.0351</v>
+        <v>0.0401</v>
       </c>
     </row>
     <row r="10" spans="1:17">
@@ -4211,43 +4184,43 @@
         <v>14.9338</v>
       </c>
       <c r="E10" s="1">
+        <v>5804.6184</v>
+      </c>
+      <c r="F10" s="1">
+        <v>629.9122</v>
+      </c>
+      <c r="G10" s="1">
         <v>95593.31690000001</v>
       </c>
-      <c r="F10" s="1">
-        <v>594.9703</v>
-      </c>
-      <c r="G10" s="1">
-        <v>6434.5306</v>
-      </c>
       <c r="H10" s="1">
-        <v>95593.31690000001</v>
+        <v>86235.1529</v>
       </c>
       <c r="I10" s="1">
-        <v>89850.4467</v>
+        <v>0</v>
       </c>
       <c r="J10" s="1">
-        <v>13.9638</v>
+        <v>86235.1529</v>
       </c>
       <c r="K10" s="1">
-        <v>0</v>
+        <v>79881.1955</v>
       </c>
       <c r="L10" s="1">
-        <v>0</v>
+        <v>13.7617</v>
       </c>
       <c r="M10" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N10" s="1">
-        <v>-8885.167100000001</v>
+        <v>0</v>
       </c>
       <c r="O10" s="1">
-        <v>1114.8329</v>
+        <v>10000</v>
       </c>
       <c r="P10" s="1">
-        <v>96708.1498</v>
+        <v>-9406.9822</v>
       </c>
       <c r="Q10" s="3">
-        <v>0.0321</v>
+        <v>0.0358</v>
       </c>
     </row>
     <row r="11" spans="1:17">
@@ -4264,43 +4237,43 @@
         <v>15.9313</v>
       </c>
       <c r="E11" s="1">
-        <v>107027.2167</v>
+        <v>6434.5306</v>
       </c>
       <c r="F11" s="1">
         <v>318.5291</v>
       </c>
       <c r="G11" s="1">
-        <v>6753.0597</v>
+        <v>107027.2167</v>
       </c>
       <c r="H11" s="1">
-        <v>107027.2167</v>
+        <v>101978.9451</v>
       </c>
       <c r="I11" s="1">
-        <v>94925.0287</v>
+        <v>593.0178</v>
       </c>
       <c r="J11" s="1">
-        <v>14.0566</v>
+        <v>102571.9629</v>
       </c>
       <c r="K11" s="1">
-        <v>0</v>
+        <v>84955.7776</v>
       </c>
       <c r="L11" s="1">
-        <v>0</v>
+        <v>13.2031</v>
       </c>
       <c r="M11" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N11" s="1">
+        <v>0</v>
+      </c>
+      <c r="O11" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P11" s="1">
         <v>-5074.5821</v>
       </c>
-      <c r="O11" s="1">
-        <v>6040.2508</v>
-      </c>
-      <c r="P11" s="1">
-        <v>113067.4675</v>
-      </c>
       <c r="Q11" s="3">
-        <v>0.0596</v>
+        <v>0.0658</v>
       </c>
     </row>
     <row r="12" spans="1:17">
@@ -4317,43 +4290,43 @@
         <v>17.0207</v>
       </c>
       <c r="E12" s="1">
-        <v>118632.6249</v>
+        <v>6753.0597</v>
       </c>
       <c r="F12" s="1">
         <v>253.1902</v>
       </c>
       <c r="G12" s="1">
-        <v>7006.2498</v>
+        <v>118632.6249</v>
       </c>
       <c r="H12" s="1">
-        <v>118632.6249</v>
+        <v>114345.5074</v>
       </c>
       <c r="I12" s="1">
-        <v>99234.50290000001</v>
+        <v>5518.4357</v>
       </c>
       <c r="J12" s="1">
-        <v>14.1637</v>
+        <v>119863.9432</v>
       </c>
       <c r="K12" s="1">
-        <v>0</v>
+        <v>89265.2518</v>
       </c>
       <c r="L12" s="1">
-        <v>0</v>
+        <v>13.2185</v>
       </c>
       <c r="M12" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N12" s="1">
+        <v>0</v>
+      </c>
+      <c r="O12" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P12" s="1">
         <v>-4309.4742</v>
       </c>
-      <c r="O12" s="1">
-        <v>11730.7766</v>
-      </c>
-      <c r="P12" s="1">
-        <v>130363.4016</v>
-      </c>
       <c r="Q12" s="3">
-        <v>0.0593</v>
+        <v>0.0648</v>
       </c>
     </row>
     <row r="13" spans="1:17">
@@ -4370,43 +4343,43 @@
         <v>17.4608</v>
       </c>
       <c r="E13" s="1">
-        <v>130412.1143</v>
+        <v>7006.2498</v>
       </c>
       <c r="F13" s="1">
         <v>501.5574</v>
       </c>
       <c r="G13" s="1">
-        <v>7507.8073</v>
+        <v>130412.1143</v>
       </c>
       <c r="H13" s="1">
-        <v>130412.1143</v>
+        <v>121699.9611</v>
       </c>
       <c r="I13" s="1">
-        <v>107992.0972</v>
+        <v>11208.9615</v>
       </c>
       <c r="J13" s="1">
-        <v>14.384</v>
+        <v>132908.9227</v>
       </c>
       <c r="K13" s="1">
-        <v>0</v>
+        <v>98022.8461</v>
       </c>
       <c r="L13" s="1">
-        <v>0</v>
+        <v>13.9908</v>
       </c>
       <c r="M13" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N13" s="1">
+        <v>0</v>
+      </c>
+      <c r="O13" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P13" s="1">
         <v>-8757.594300000001</v>
       </c>
-      <c r="O13" s="1">
-        <v>12973.1823</v>
-      </c>
-      <c r="P13" s="1">
-        <v>143385.2966</v>
-      </c>
       <c r="Q13" s="3">
-        <v>0.0215</v>
+        <v>0.0234</v>
       </c>
     </row>
     <row r="14" spans="1:17">
@@ -4423,7 +4396,7 @@
         <v>16.886</v>
       </c>
       <c r="E14" s="1">
-        <v>0</v>
+        <v>7507.8073</v>
       </c>
       <c r="F14" s="1">
         <v>-7507.8073</v>
@@ -4432,34 +4405,34 @@
         <v>0</v>
       </c>
       <c r="H14" s="1">
-        <v>0</v>
+        <v>126119.9009</v>
       </c>
       <c r="I14" s="1">
-        <v>107992.0972</v>
+        <v>12451.3672</v>
       </c>
       <c r="J14" s="1">
-        <v>14.384</v>
+        <v>138571.2681</v>
       </c>
       <c r="K14" s="1">
-        <v>0</v>
+        <v>98022.8461</v>
       </c>
       <c r="L14" s="1">
-        <v>0</v>
+        <v>13.0561</v>
       </c>
       <c r="M14" s="1">
         <v>0</v>
       </c>
       <c r="N14" s="1">
+        <v>0</v>
+      </c>
+      <c r="O14" s="1">
+        <v>0</v>
+      </c>
+      <c r="P14" s="1">
         <v>126119.9009</v>
       </c>
-      <c r="O14" s="1">
-        <v>139093.0832</v>
-      </c>
-      <c r="P14" s="1">
-        <v>139093.0832</v>
-      </c>
       <c r="Q14" s="3">
-        <v>-0.09320000000000001</v>
+        <v>-0.0304</v>
       </c>
     </row>
   </sheetData>
@@ -4489,24 +4462,24 @@
         <v>0</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="G1" s="2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="2" spans="1:7" s="1" customFormat="1">
       <c r="A2" s="2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B2" s="1">
         <v>16.8405</v>
@@ -4514,131 +4487,131 @@
     </row>
     <row r="3" spans="1:7" s="1" customFormat="1">
       <c r="A3" s="2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C3" s="1">
-        <v>14.5855</v>
+        <v>13.3743</v>
       </c>
       <c r="D3" s="1">
-        <v>14.2913</v>
+        <v>12.8473</v>
       </c>
       <c r="E3" s="1">
-        <v>14.3191</v>
+        <v>12.9149</v>
       </c>
       <c r="F3" s="1">
-        <v>14.3512</v>
+        <v>12.9833</v>
       </c>
       <c r="G3" s="1">
-        <v>14.384</v>
+        <v>13.0561</v>
       </c>
     </row>
     <row r="4" spans="1:7" s="3" customFormat="1">
       <c r="A4" s="2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B4" s="3">
         <v>0.1841</v>
       </c>
       <c r="C4" s="3">
-        <v>0.1319</v>
+        <v>0.1835</v>
       </c>
       <c r="D4" s="3">
-        <v>0.1216</v>
+        <v>0.1734</v>
       </c>
       <c r="E4" s="3">
-        <v>0.1242</v>
+        <v>0.1761</v>
       </c>
       <c r="F4" s="3">
-        <v>0.1266</v>
+        <v>0.1788</v>
       </c>
       <c r="G4" s="3">
-        <v>0.129</v>
+        <v>0.1812</v>
       </c>
     </row>
     <row r="5" spans="1:7" s="3" customFormat="1">
       <c r="A5" s="2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B5" s="3">
         <v>0.1554</v>
       </c>
       <c r="C5" s="3">
-        <v>0.1696</v>
+        <v>0.1522</v>
       </c>
       <c r="D5" s="3">
-        <v>0.164</v>
+        <v>0.1469</v>
       </c>
       <c r="E5" s="3">
-        <v>0.1652</v>
+        <v>0.1481</v>
       </c>
       <c r="F5" s="3">
-        <v>0.1664</v>
+        <v>0.1493</v>
       </c>
       <c r="G5" s="3">
-        <v>0.1675</v>
+        <v>0.1505</v>
       </c>
     </row>
     <row r="6" spans="1:7" s="4" customFormat="1">
       <c r="A6" s="2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B6" s="4">
         <v>1.0535</v>
       </c>
       <c r="C6" s="4">
-        <v>0.6578000000000001</v>
+        <v>1.0726</v>
       </c>
       <c r="D6" s="4">
-        <v>0.6176</v>
+        <v>1.0418</v>
       </c>
       <c r="E6" s="4">
-        <v>0.6288</v>
+        <v>1.0518</v>
       </c>
       <c r="F6" s="4">
-        <v>0.6383</v>
+        <v>1.0615</v>
       </c>
       <c r="G6" s="4">
-        <v>0.6488</v>
+        <v>1.0687</v>
       </c>
     </row>
     <row r="7" spans="1:7" s="3" customFormat="1">
       <c r="A7" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C7" s="3">
-        <v>0.3121</v>
+        <v>0.1432</v>
       </c>
       <c r="D7" s="3">
-        <v>0.3202</v>
+        <v>0.309</v>
       </c>
       <c r="E7" s="3">
-        <v>0.32</v>
+        <v>0.3093</v>
       </c>
       <c r="F7" s="3">
-        <v>0.3196</v>
+        <v>0.3094</v>
       </c>
       <c r="G7" s="3">
-        <v>0.3194</v>
+        <v>0.3093</v>
       </c>
     </row>
     <row r="8" spans="1:7" s="1" customFormat="1">
       <c r="A8" s="2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C8" s="1">
-        <v>965.2796</v>
+        <v>474.2133</v>
       </c>
       <c r="D8" s="1">
-        <v>965.2796</v>
+        <v>474.2133</v>
       </c>
       <c r="E8" s="1">
-        <v>965.2796</v>
+        <v>474.2133</v>
       </c>
       <c r="F8" s="1">
-        <v>965.2796</v>
+        <v>474.2133</v>
       </c>
       <c r="G8" s="1">
-        <v>965.2796</v>
+        <v>474.2133</v>
       </c>
     </row>
   </sheetData>
